--- a/Contabilidad.xlsx
+++ b/Contabilidad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="255">
   <si>
     <t>Libro Diario</t>
   </si>
@@ -771,6 +771,12 @@
   </si>
   <si>
     <t>Codigo: 5.2.01</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -830,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="156">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -874,6 +880,321 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2754,7 +3075,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="16">
+      <c r="A1" t="s" s="121">
         <v>176</v>
       </c>
     </row>
@@ -2948,194 +3269,194 @@
         <v>14280.0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="17">
+    <row r="13">
+      <c r="A13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>46090.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>31810.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14280.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="122">
         <v>176</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100.0</v>
+        <v>180</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
         <v>154</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>160</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>18.0</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
         <v>78.4</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F22" t="n">
         <v>21.599999999999994</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="18">
+    <row r="23">
+      <c r="A23" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>78.4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>21.599999999999994</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="123">
         <v>176</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E28" t="s">
-        <v>183</v>
-      </c>
-      <c r="F28" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>15000.0</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>15960.0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>30960.0</v>
+        <v>180</v>
+      </c>
+      <c r="C30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C31" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0</v>
+        <v>15000.0</v>
       </c>
       <c r="E31" t="n">
-        <v>5000.0</v>
+        <v>0.0</v>
       </c>
       <c r="F31" t="n">
-        <v>25960.0</v>
+        <v>15000.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C32" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0</v>
+        <v>15960.0</v>
       </c>
       <c r="E32" t="n">
-        <v>224.0</v>
+        <v>0.0</v>
       </c>
       <c r="F32" t="n">
-        <v>25736.0</v>
+        <v>30960.0</v>
       </c>
     </row>
     <row r="33">
@@ -3143,90 +3464,90 @@
         <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C33" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="D33" t="n">
         <v>0.0</v>
       </c>
       <c r="E33" t="n">
-        <v>100.0</v>
+        <v>5000.0</v>
       </c>
       <c r="F33" t="n">
-        <v>25636.0</v>
+        <v>25960.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C34" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="D34" t="n">
         <v>0.0</v>
       </c>
       <c r="E34" t="n">
-        <v>12320.0</v>
+        <v>224.0</v>
       </c>
       <c r="F34" t="n">
-        <v>13316.0</v>
+        <v>25736.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="C35" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="D35" t="n">
         <v>0.0</v>
       </c>
       <c r="E35" t="n">
-        <v>300.0</v>
+        <v>100.0</v>
       </c>
       <c r="F35" t="n">
-        <v>13016.0</v>
+        <v>25636.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="C36" t="n">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="D36" t="n">
         <v>0.0</v>
       </c>
       <c r="E36" t="n">
-        <v>500.0</v>
+        <v>12320.0</v>
       </c>
       <c r="F36" t="n">
-        <v>12516.0</v>
+        <v>13316.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C37" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="D37" t="n">
         <v>0.0</v>
@@ -3235,692 +3556,797 @@
         <v>300.0</v>
       </c>
       <c r="F37" t="n">
-        <v>12216.0</v>
+        <v>13016.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C38" t="n">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="D38" t="n">
         <v>0.0</v>
       </c>
       <c r="E38" t="n">
-        <v>300.0</v>
+        <v>500.0</v>
       </c>
       <c r="F38" t="n">
-        <v>11916.0</v>
+        <v>12516.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C39" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="D39" t="n">
-        <v>20720.0</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="F39" t="n">
-        <v>32636.0</v>
+        <v>12216.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>11916.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>20720.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>32636.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
         <v>169</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>173</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C42" t="n">
         <v>25.0</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n">
         <v>5297.04</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F42" t="n">
         <v>27338.96</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s" s="19">
+    <row r="43">
+      <c r="A43" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" t="s">
+        <v>254</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>51680.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>24341.04</v>
+      </c>
+      <c r="F43" t="n">
+        <v>27338.96</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="124">
         <v>176</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" t="s">
-        <v>180</v>
-      </c>
-      <c r="C47" t="s">
-        <v>181</v>
-      </c>
-      <c r="D47" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" t="s">
-        <v>183</v>
-      </c>
-      <c r="F47" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>3500.0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3500.0</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>28750.0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>32250.0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" t="s">
+        <v>183</v>
+      </c>
+      <c r="F50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3500.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3500.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>28750.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>32250.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
         <v>140</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" t="s">
         <v>143</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C53" t="n">
         <v>14.0</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E50" t="n">
+      <c r="D53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E53" t="n">
         <v>6250.0</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F53" t="n">
         <v>26000.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="20">
+      <c r="A54" t="s">
+        <v>253</v>
+      </c>
+      <c r="B54" t="s">
+        <v>254</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>32250.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6250.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>26000.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="125">
         <v>176</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>179</v>
-      </c>
-      <c r="B57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C57" t="s">
-        <v>181</v>
-      </c>
-      <c r="D57" t="s">
-        <v>182</v>
-      </c>
-      <c r="E57" t="s">
-        <v>183</v>
-      </c>
-      <c r="F57" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>24.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>105</v>
-      </c>
-      <c r="B59" t="s">
-        <v>114</v>
-      </c>
-      <c r="C59" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1320.0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1344.0</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1164.0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
-      </c>
-      <c r="C61" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1172.4</v>
+        <v>180</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" t="s">
+        <v>183</v>
+      </c>
+      <c r="F61" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C62" t="n">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="D62" t="n">
-        <v>3600.0</v>
+        <v>24.0</v>
       </c>
       <c r="E62" t="n">
         <v>0.0</v>
       </c>
       <c r="F62" t="n">
-        <v>4772.4</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1320.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1344.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1164.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1172.4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4772.4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
         <v>169</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B67" t="s">
         <v>174</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C67" t="n">
         <v>26.0</v>
       </c>
-      <c r="D63" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E63" t="n">
+      <c r="D67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E67" t="n">
         <v>4772.4</v>
       </c>
-      <c r="F63" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="21">
-        <v>176</v>
+      <c r="F67" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>253</v>
+      </c>
+      <c r="B68" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4952.4</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4952.4</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="126">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="s">
+    <row r="74">
+      <c r="A74" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="s">
+    <row r="75">
+      <c r="A75" t="s">
         <v>179</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B75" t="s">
         <v>180</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C75" t="s">
         <v>181</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D75" t="s">
         <v>182</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E75" t="s">
         <v>183</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F75" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>154</v>
-      </c>
-      <c r="B71" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="22">
-        <v>176</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>195</v>
+        <v>154</v>
+      </c>
+      <c r="B76" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>179</v>
-      </c>
-      <c r="B78" t="s">
-        <v>180</v>
-      </c>
-      <c r="C78" t="s">
-        <v>181</v>
-      </c>
-      <c r="D78" t="s">
-        <v>182</v>
-      </c>
-      <c r="E78" t="s">
-        <v>183</v>
-      </c>
-      <c r="F78" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>55000.0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>55000.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E80" t="n">
-        <v>7250.0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>47750.0</v>
+        <v>253</v>
+      </c>
+      <c r="B77" t="s">
+        <v>254</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s">
-        <v>105</v>
-      </c>
-      <c r="B81" t="s">
-        <v>114</v>
-      </c>
-      <c r="C81" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>11000.0</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>58750.0</v>
+      <c r="A81" t="s" s="127">
+        <v>176</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>125</v>
-      </c>
-      <c r="B82" t="s">
-        <v>134</v>
-      </c>
-      <c r="C82" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>57250.0</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>136</v>
-      </c>
-      <c r="B83" t="s">
-        <v>139</v>
-      </c>
-      <c r="C83" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>14245.2</v>
-      </c>
-      <c r="F83" t="n">
-        <v>43004.8</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
-      </c>
-      <c r="C84" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>3103.8</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>46108.600000000006</v>
+        <v>180</v>
+      </c>
+      <c r="C84" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" t="s">
+        <v>182</v>
+      </c>
+      <c r="E84" t="s">
+        <v>183</v>
+      </c>
+      <c r="F84" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C85" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="D85" t="n">
-        <v>30000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="E85" t="n">
         <v>0.0</v>
       </c>
       <c r="F85" t="n">
-        <v>76108.6</v>
+        <v>55000.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="C86" t="n">
-        <v>23.0</v>
+        <v>4.0</v>
       </c>
       <c r="D86" t="n">
         <v>0.0</v>
       </c>
       <c r="E86" t="n">
-        <v>9157.07</v>
+        <v>7250.0</v>
       </c>
       <c r="F86" t="n">
-        <v>66951.53</v>
+        <v>47750.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>11000.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>58750.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>57250.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>14245.2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>43004.8</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="23">
-        <v>176</v>
+      <c r="A90" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" t="s">
+        <v>150</v>
+      </c>
+      <c r="C90" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3103.8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>46108.600000000006</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>197</v>
+        <v>163</v>
+      </c>
+      <c r="B91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>30000.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>76108.6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>198</v>
+        <v>166</v>
+      </c>
+      <c r="B92" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>9157.07</v>
+      </c>
+      <c r="F92" t="n">
+        <v>66951.53</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="B93" t="s">
-        <v>180</v>
-      </c>
-      <c r="C93" t="s">
-        <v>181</v>
-      </c>
-      <c r="D93" t="s">
-        <v>182</v>
-      </c>
-      <c r="E93" t="s">
-        <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>169</v>
-      </c>
-      <c r="B94" t="s">
-        <v>173</v>
-      </c>
-      <c r="C94" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-300.0</v>
+        <v>254</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>99103.8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>32152.27</v>
+      </c>
+      <c r="F93" t="n">
+        <v>66951.53</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="128">
+        <v>176</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="24">
-        <v>176</v>
+      <c r="A98" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>179</v>
+      </c>
+      <c r="B100" t="s">
+        <v>180</v>
+      </c>
+      <c r="C100" t="s">
+        <v>181</v>
+      </c>
+      <c r="D100" t="s">
+        <v>182</v>
+      </c>
+      <c r="E100" t="s">
+        <v>183</v>
+      </c>
+      <c r="F100" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B101" t="s">
-        <v>180</v>
-      </c>
-      <c r="C101" t="s">
-        <v>181</v>
-      </c>
-      <c r="D101" t="s">
-        <v>182</v>
-      </c>
-      <c r="E101" t="s">
-        <v>183</v>
-      </c>
-      <c r="F101" t="s">
-        <v>184</v>
+        <v>173</v>
+      </c>
+      <c r="C101" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-300.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="B102" t="s">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="C102" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D102" t="n">
-        <v>15000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="F102" t="n">
-        <v>15000.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="25">
+      <c r="A106" t="s" s="129">
         <v>176</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109">
@@ -3945,597 +4371,702 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="C110" t="n">
-        <v>24.0</v>
+        <v>1.0</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0</v>
+        <v>15000.0</v>
       </c>
       <c r="E110" t="n">
-        <v>112.5</v>
+        <v>0.0</v>
       </c>
       <c r="F110" t="n">
-        <v>-112.5</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="26">
+        <v>15000.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>253</v>
+      </c>
+      <c r="B111" t="s">
+        <v>254</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>15000.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="130">
         <v>176</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>179</v>
-      </c>
-      <c r="B117" t="s">
-        <v>180</v>
-      </c>
-      <c r="C117" t="s">
-        <v>181</v>
-      </c>
-      <c r="D117" t="s">
-        <v>182</v>
-      </c>
-      <c r="E117" t="s">
-        <v>183</v>
-      </c>
-      <c r="F117" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="B118" t="s">
-        <v>76</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>25000.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="27">
+        <v>180</v>
+      </c>
+      <c r="C118" t="s">
+        <v>181</v>
+      </c>
+      <c r="D118" t="s">
+        <v>182</v>
+      </c>
+      <c r="E118" t="s">
+        <v>183</v>
+      </c>
+      <c r="F118" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C119" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-112.5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>253</v>
+      </c>
+      <c r="B120" t="s">
+        <v>254</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="131">
         <v>176</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>179</v>
-      </c>
-      <c r="B125" t="s">
-        <v>180</v>
-      </c>
-      <c r="C125" t="s">
-        <v>181</v>
-      </c>
-      <c r="D125" t="s">
-        <v>182</v>
-      </c>
-      <c r="E125" t="s">
-        <v>183</v>
-      </c>
-      <c r="F125" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>169</v>
-      </c>
-      <c r="B126" t="s">
-        <v>170</v>
-      </c>
-      <c r="C126" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>624.94</v>
-      </c>
-      <c r="F126" t="n">
-        <v>-624.94</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s" s="28">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>179</v>
+      </c>
+      <c r="B127" t="s">
+        <v>180</v>
+      </c>
+      <c r="C127" t="s">
+        <v>181</v>
+      </c>
+      <c r="D127" t="s">
+        <v>182</v>
+      </c>
+      <c r="E127" t="s">
+        <v>183</v>
+      </c>
+      <c r="F127" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>76</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>25000.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" t="s">
+        <v>254</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>25000.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="132">
         <v>176</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>179</v>
-      </c>
-      <c r="B133" t="s">
-        <v>180</v>
-      </c>
-      <c r="C133" t="s">
-        <v>181</v>
-      </c>
-      <c r="D133" t="s">
-        <v>182</v>
-      </c>
-      <c r="E133" t="s">
-        <v>183</v>
-      </c>
-      <c r="F133" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>89</v>
-      </c>
-      <c r="B134" t="s">
-        <v>90</v>
-      </c>
-      <c r="C134" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D134" t="n">
-        <v>5000.0</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F134" t="n">
-        <v>5000.0</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>179</v>
+      </c>
+      <c r="B136" t="s">
+        <v>180</v>
+      </c>
+      <c r="C136" t="s">
+        <v>181</v>
+      </c>
+      <c r="D136" t="s">
+        <v>182</v>
+      </c>
+      <c r="E136" t="s">
+        <v>183</v>
+      </c>
+      <c r="F136" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>169</v>
+      </c>
+      <c r="B137" t="s">
+        <v>170</v>
+      </c>
+      <c r="C137" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>624.94</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-624.94</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="29">
+      <c r="A138" t="s">
+        <v>253</v>
+      </c>
+      <c r="B138" t="s">
+        <v>254</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>624.94</v>
+      </c>
+      <c r="F138" t="n">
+        <v>624.94</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="133">
         <v>176</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>179</v>
-      </c>
-      <c r="B141" t="s">
-        <v>180</v>
-      </c>
-      <c r="C141" t="s">
-        <v>181</v>
-      </c>
-      <c r="D141" t="s">
-        <v>182</v>
-      </c>
-      <c r="E141" t="s">
-        <v>183</v>
-      </c>
-      <c r="F141" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B142" t="s">
-        <v>76</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E142" t="n">
-        <v>3500.0</v>
-      </c>
-      <c r="F142" t="n">
-        <v>-3500.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>163</v>
-      </c>
-      <c r="B143" t="s">
-        <v>114</v>
-      </c>
-      <c r="C143" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E143" t="n">
-        <v>33600.0</v>
-      </c>
-      <c r="F143" t="n">
-        <v>-37100.0</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>179</v>
+      </c>
+      <c r="B145" t="s">
+        <v>180</v>
+      </c>
+      <c r="C145" t="s">
+        <v>181</v>
+      </c>
+      <c r="D145" t="s">
+        <v>182</v>
+      </c>
+      <c r="E145" t="s">
+        <v>183</v>
+      </c>
+      <c r="F145" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>89</v>
+      </c>
+      <c r="B146" t="s">
+        <v>90</v>
+      </c>
+      <c r="C146" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5000.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="30">
+      <c r="A147" t="s">
+        <v>253</v>
+      </c>
+      <c r="B147" t="s">
+        <v>254</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="134">
         <v>176</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
+    <row r="152">
+      <c r="A152" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
         <v>179</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B154" t="s">
         <v>180</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C154" t="s">
         <v>181</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D154" t="s">
         <v>182</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E154" t="s">
         <v>183</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F154" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>169</v>
-      </c>
-      <c r="B151" t="s">
-        <v>173</v>
-      </c>
-      <c r="C151" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E151" t="n">
-        <v>487.78</v>
-      </c>
-      <c r="F151" t="n">
-        <v>-487.78</v>
-      </c>
-    </row>
     <row r="155">
-      <c r="A155" t="s" s="31">
-        <v>176</v>
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>76</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3500.0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-3500.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>213</v>
+        <v>163</v>
+      </c>
+      <c r="B156" t="s">
+        <v>114</v>
+      </c>
+      <c r="C156" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>33600.0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-37100.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>179</v>
-      </c>
-      <c r="B158" t="s">
-        <v>180</v>
-      </c>
-      <c r="C158" t="s">
-        <v>181</v>
-      </c>
-      <c r="D158" t="s">
-        <v>182</v>
-      </c>
-      <c r="E158" t="s">
-        <v>183</v>
-      </c>
-      <c r="F158" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>169</v>
-      </c>
-      <c r="B159" t="s">
-        <v>173</v>
-      </c>
-      <c r="C159" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E159" t="n">
-        <v>627.15</v>
-      </c>
-      <c r="F159" t="n">
-        <v>-627.15</v>
+        <v>253</v>
+      </c>
+      <c r="B157" t="s">
+        <v>254</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>37100.0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>37100.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="135">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="32">
-        <v>176</v>
+      <c r="A163" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>215</v>
+        <v>179</v>
+      </c>
+      <c r="B164" t="s">
+        <v>180</v>
+      </c>
+      <c r="C164" t="s">
+        <v>181</v>
+      </c>
+      <c r="D164" t="s">
+        <v>182</v>
+      </c>
+      <c r="E164" t="s">
+        <v>183</v>
+      </c>
+      <c r="F164" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>216</v>
+        <v>169</v>
+      </c>
+      <c r="B165" t="s">
+        <v>173</v>
+      </c>
+      <c r="C165" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>487.78</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-487.78</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="B166" t="s">
-        <v>180</v>
-      </c>
-      <c r="C166" t="s">
-        <v>181</v>
-      </c>
-      <c r="D166" t="s">
-        <v>182</v>
-      </c>
-      <c r="E166" t="s">
-        <v>183</v>
-      </c>
-      <c r="F166" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>78</v>
-      </c>
-      <c r="B167" t="s">
-        <v>85</v>
-      </c>
-      <c r="C167" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1710.0</v>
-      </c>
-      <c r="F167" t="n">
-        <v>-1710.0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>136</v>
-      </c>
-      <c r="B168" t="s">
-        <v>137</v>
-      </c>
-      <c r="C168" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E168" t="n">
-        <v>3450.0</v>
-      </c>
-      <c r="F168" t="n">
-        <v>-5160.0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>140</v>
-      </c>
-      <c r="B169" t="s">
-        <v>143</v>
-      </c>
-      <c r="C169" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D169" t="n">
-        <v>750.0</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F169" t="n">
-        <v>-4410.0</v>
+        <v>254</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>487.78</v>
+      </c>
+      <c r="F166" t="n">
+        <v>487.78</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s">
-        <v>166</v>
-      </c>
-      <c r="B170" t="s">
-        <v>167</v>
-      </c>
-      <c r="C170" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E170" t="n">
-        <v>2220.0</v>
-      </c>
-      <c r="F170" t="n">
-        <v>-6630.0</v>
+      <c r="A170" t="s" s="136">
+        <v>176</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173" t="s">
+        <v>180</v>
+      </c>
+      <c r="C173" t="s">
+        <v>181</v>
+      </c>
+      <c r="D173" t="s">
+        <v>182</v>
+      </c>
+      <c r="E173" t="s">
+        <v>183</v>
+      </c>
+      <c r="F173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
         <v>169</v>
       </c>
-      <c r="B171" t="s">
-        <v>174</v>
-      </c>
-      <c r="C171" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="D171" t="n">
-        <v>6630.0</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.0</v>
+      <c r="B174" t="s">
+        <v>173</v>
+      </c>
+      <c r="C174" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>627.15</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-627.15</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="33">
+      <c r="A175" t="s">
+        <v>253</v>
+      </c>
+      <c r="B175" t="s">
+        <v>254</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>627.15</v>
+      </c>
+      <c r="F175" t="n">
+        <v>627.15</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="137">
         <v>176</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
+    <row r="180">
+      <c r="A180" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
         <v>179</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B182" t="s">
         <v>180</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C182" t="s">
         <v>181</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D182" t="s">
         <v>182</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E182" t="s">
         <v>183</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F182" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>169</v>
-      </c>
-      <c r="B179" t="s">
-        <v>173</v>
-      </c>
-      <c r="C179" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E179" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="F179" t="n">
-        <v>-55.0</v>
-      </c>
-    </row>
     <row r="183">
-      <c r="A183" t="s" s="34">
-        <v>176</v>
+      <c r="A183" t="s">
+        <v>78</v>
+      </c>
+      <c r="B183" t="s">
+        <v>85</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1710.0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-1710.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>219</v>
+        <v>136</v>
+      </c>
+      <c r="B184" t="s">
+        <v>137</v>
+      </c>
+      <c r="C184" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3450.0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>-5160.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>220</v>
+        <v>140</v>
+      </c>
+      <c r="B185" t="s">
+        <v>143</v>
+      </c>
+      <c r="C185" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>-4410.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B186" t="s">
-        <v>180</v>
-      </c>
-      <c r="C186" t="s">
-        <v>181</v>
-      </c>
-      <c r="D186" t="s">
-        <v>182</v>
-      </c>
-      <c r="E186" t="s">
-        <v>183</v>
-      </c>
-      <c r="F186" t="s">
-        <v>184</v>
+        <v>167</v>
+      </c>
+      <c r="C186" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2220.0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-6630.0</v>
       </c>
     </row>
     <row r="187">
@@ -4549,548 +5080,653 @@
         <v>26.0</v>
       </c>
       <c r="D187" t="n">
-        <v>0.0</v>
+        <v>6630.0</v>
       </c>
       <c r="E187" t="n">
-        <v>1857.6</v>
+        <v>0.0</v>
       </c>
       <c r="F187" t="n">
-        <v>-1857.6</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s" s="35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>253</v>
+      </c>
+      <c r="B188" t="s">
+        <v>254</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>7380.0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>7380.0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="138">
         <v>176</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>179</v>
-      </c>
-      <c r="B194" t="s">
-        <v>180</v>
-      </c>
-      <c r="C194" t="s">
-        <v>181</v>
-      </c>
-      <c r="D194" t="s">
-        <v>182</v>
-      </c>
-      <c r="E194" t="s">
-        <v>183</v>
-      </c>
-      <c r="F194" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="B195" t="s">
-        <v>76</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E195" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="F195" t="n">
-        <v>-1500.0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s" s="36">
+        <v>180</v>
+      </c>
+      <c r="C195" t="s">
+        <v>181</v>
+      </c>
+      <c r="D195" t="s">
+        <v>182</v>
+      </c>
+      <c r="E195" t="s">
+        <v>183</v>
+      </c>
+      <c r="F195" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>169</v>
+      </c>
+      <c r="B196" t="s">
+        <v>173</v>
+      </c>
+      <c r="C196" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-55.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>253</v>
+      </c>
+      <c r="B197" t="s">
+        <v>254</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="139">
         <v>176</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>179</v>
-      </c>
-      <c r="B202" t="s">
-        <v>180</v>
-      </c>
-      <c r="C202" t="s">
-        <v>181</v>
-      </c>
-      <c r="D202" t="s">
-        <v>182</v>
-      </c>
-      <c r="E202" t="s">
-        <v>183</v>
-      </c>
-      <c r="F202" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B203" t="s">
-        <v>76</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E203" t="n">
-        <v>118500.0</v>
-      </c>
-      <c r="F203" t="n">
-        <v>-118500.0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s" s="37">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>179</v>
+      </c>
+      <c r="B204" t="s">
+        <v>180</v>
+      </c>
+      <c r="C204" t="s">
+        <v>181</v>
+      </c>
+      <c r="D204" t="s">
+        <v>182</v>
+      </c>
+      <c r="E204" t="s">
+        <v>183</v>
+      </c>
+      <c r="F204" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>169</v>
+      </c>
+      <c r="B205" t="s">
+        <v>174</v>
+      </c>
+      <c r="C205" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1857.6</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-1857.6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>253</v>
+      </c>
+      <c r="B206" t="s">
+        <v>254</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1857.6</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1857.6</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="140">
         <v>176</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>179</v>
-      </c>
-      <c r="B210" t="s">
-        <v>180</v>
-      </c>
-      <c r="C210" t="s">
-        <v>181</v>
-      </c>
-      <c r="D210" t="s">
-        <v>182</v>
-      </c>
-      <c r="E210" t="s">
-        <v>183</v>
-      </c>
-      <c r="F210" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>78</v>
-      </c>
-      <c r="B211" t="s">
-        <v>85</v>
-      </c>
-      <c r="C211" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E211" t="n">
-        <v>14250.0</v>
-      </c>
-      <c r="F211" t="n">
-        <v>-14250.0</v>
+        <v>221</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>136</v>
-      </c>
-      <c r="B212" t="s">
-        <v>137</v>
-      </c>
-      <c r="C212" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E212" t="n">
-        <v>28750.0</v>
-      </c>
-      <c r="F212" t="n">
-        <v>-43000.0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="B213" t="s">
-        <v>143</v>
-      </c>
-      <c r="C213" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D213" t="n">
-        <v>6250.0</v>
-      </c>
-      <c r="E213" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F213" t="n">
-        <v>-36750.0</v>
+        <v>180</v>
+      </c>
+      <c r="C213" t="s">
+        <v>181</v>
+      </c>
+      <c r="D213" t="s">
+        <v>182</v>
+      </c>
+      <c r="E213" t="s">
+        <v>183</v>
+      </c>
+      <c r="F213" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>166</v>
+        <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="C214" t="n">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="D214" t="n">
         <v>0.0</v>
       </c>
       <c r="E214" t="n">
-        <v>18500.0</v>
+        <v>1500.0</v>
       </c>
       <c r="F214" t="n">
-        <v>-55250.0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s" s="38">
+        <v>-1500.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>253</v>
+      </c>
+      <c r="B215" t="s">
+        <v>254</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="141">
         <v>176</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>179</v>
-      </c>
-      <c r="B221" t="s">
-        <v>180</v>
-      </c>
-      <c r="C221" t="s">
-        <v>181</v>
-      </c>
-      <c r="D221" t="s">
-        <v>182</v>
-      </c>
-      <c r="E221" t="s">
-        <v>183</v>
-      </c>
-      <c r="F221" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B222" t="s">
-        <v>162</v>
-      </c>
-      <c r="C222" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="D222" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F222" t="n">
-        <v>300.0</v>
+        <v>180</v>
+      </c>
+      <c r="C222" t="s">
+        <v>181</v>
+      </c>
+      <c r="D222" t="s">
+        <v>182</v>
+      </c>
+      <c r="E222" t="s">
+        <v>183</v>
+      </c>
+      <c r="F222" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="B223" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="C223" t="n">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
       <c r="D223" t="n">
-        <v>4504.0</v>
+        <v>0.0</v>
       </c>
       <c r="E223" t="n">
-        <v>0.0</v>
+        <v>118500.0</v>
       </c>
       <c r="F223" t="n">
-        <v>4804.0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s" s="39">
+        <v>-118500.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>253</v>
+      </c>
+      <c r="B224" t="s">
+        <v>254</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>118500.0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>118500.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="142">
         <v>176</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>179</v>
-      </c>
-      <c r="B230" t="s">
-        <v>180</v>
-      </c>
-      <c r="C230" t="s">
-        <v>181</v>
-      </c>
-      <c r="D230" t="s">
-        <v>182</v>
-      </c>
-      <c r="E230" t="s">
-        <v>183</v>
-      </c>
-      <c r="F230" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="B231" t="s">
-        <v>96</v>
-      </c>
-      <c r="C231" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D231" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E231" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F231" t="n">
-        <v>200.0</v>
+        <v>180</v>
+      </c>
+      <c r="C231" t="s">
+        <v>181</v>
+      </c>
+      <c r="D231" t="s">
+        <v>182</v>
+      </c>
+      <c r="E231" t="s">
+        <v>183</v>
+      </c>
+      <c r="F231" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>78</v>
+      </c>
+      <c r="B232" t="s">
+        <v>85</v>
+      </c>
+      <c r="C232" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>14250.0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>-14250.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>136</v>
+      </c>
+      <c r="B233" t="s">
+        <v>137</v>
+      </c>
+      <c r="C233" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>28750.0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>-43000.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>140</v>
+      </c>
+      <c r="B234" t="s">
+        <v>143</v>
+      </c>
+      <c r="C234" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>6250.0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>-36750.0</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="40">
-        <v>176</v>
+      <c r="A235" t="s">
+        <v>166</v>
+      </c>
+      <c r="B235" t="s">
+        <v>167</v>
+      </c>
+      <c r="C235" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>18500.0</v>
+      </c>
+      <c r="F235" t="n">
+        <v>-55250.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
+        <v>253</v>
+      </c>
+      <c r="B236" t="s">
+        <v>254</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D236" t="n">
+        <v>6250.0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>61500.0</v>
+      </c>
+      <c r="F236" t="n">
+        <v>55250.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="143">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
         <v>179</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B243" t="s">
         <v>180</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C243" t="s">
         <v>181</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D243" t="s">
         <v>182</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E243" t="s">
         <v>183</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F243" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>140</v>
-      </c>
-      <c r="B239" t="s">
-        <v>152</v>
-      </c>
-      <c r="C239" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="D239" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="E239" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F239" t="n">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s" s="41">
-        <v>176</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>233</v>
+        <v>154</v>
+      </c>
+      <c r="B244" t="s">
+        <v>162</v>
+      </c>
+      <c r="C244" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D244" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F244" t="n">
+        <v>300.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>234</v>
+        <v>169</v>
+      </c>
+      <c r="B245" t="s">
+        <v>173</v>
+      </c>
+      <c r="C245" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D245" t="n">
+        <v>4504.0</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F245" t="n">
+        <v>4804.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="B246" t="s">
-        <v>180</v>
-      </c>
-      <c r="C246" t="s">
-        <v>181</v>
-      </c>
-      <c r="D246" t="s">
-        <v>182</v>
-      </c>
-      <c r="E246" t="s">
-        <v>183</v>
-      </c>
-      <c r="F246" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s">
-        <v>169</v>
-      </c>
-      <c r="B247" t="s">
-        <v>170</v>
-      </c>
-      <c r="C247" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="D247" t="n">
-        <v>112.5</v>
-      </c>
-      <c r="E247" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F247" t="n">
-        <v>112.5</v>
+        <v>254</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D246" t="n">
+        <v>4804.0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>4804.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="144">
+        <v>176</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="42">
-        <v>176</v>
+      <c r="A251" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>236</v>
+        <v>179</v>
+      </c>
+      <c r="B253" t="s">
+        <v>180</v>
+      </c>
+      <c r="C253" t="s">
+        <v>181</v>
+      </c>
+      <c r="D253" t="s">
+        <v>182</v>
+      </c>
+      <c r="E253" t="s">
+        <v>183</v>
+      </c>
+      <c r="F253" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="B254" t="s">
-        <v>180</v>
-      </c>
-      <c r="C254" t="s">
-        <v>181</v>
-      </c>
-      <c r="D254" t="s">
-        <v>182</v>
-      </c>
-      <c r="E254" t="s">
-        <v>183</v>
-      </c>
-      <c r="F254" t="s">
-        <v>184</v>
+        <v>96</v>
+      </c>
+      <c r="C254" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>200.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="C255" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="D255" t="n">
-        <v>624.94</v>
+        <v>200.0</v>
       </c>
       <c r="E255" t="n">
         <v>0.0</v>
       </c>
       <c r="F255" t="n">
-        <v>624.94</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="43">
+      <c r="A259" t="s" s="145">
         <v>176</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="262">
@@ -5115,446 +5751,831 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="B263" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="C263" t="n">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
       <c r="D263" t="n">
-        <v>430.14</v>
+        <v>300.0</v>
       </c>
       <c r="E263" t="n">
         <v>0.0</v>
       </c>
       <c r="F263" t="n">
-        <v>430.14</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="s" s="44">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>253</v>
+      </c>
+      <c r="B264" t="s">
+        <v>254</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D264" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F264" t="n">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="146">
         <v>176</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>179</v>
-      </c>
-      <c r="B270" t="s">
-        <v>180</v>
-      </c>
-      <c r="C270" t="s">
-        <v>181</v>
-      </c>
-      <c r="D270" t="s">
-        <v>182</v>
-      </c>
-      <c r="E270" t="s">
-        <v>183</v>
-      </c>
-      <c r="F270" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
+        <v>179</v>
+      </c>
+      <c r="B271" t="s">
+        <v>180</v>
+      </c>
+      <c r="C271" t="s">
+        <v>181</v>
+      </c>
+      <c r="D271" t="s">
+        <v>182</v>
+      </c>
+      <c r="E271" t="s">
+        <v>183</v>
+      </c>
+      <c r="F271" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
         <v>169</v>
       </c>
-      <c r="B271" t="s">
-        <v>173</v>
-      </c>
-      <c r="C271" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="D271" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="E271" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F271" t="n">
-        <v>118.0</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="s" s="45">
+      <c r="B272" t="s">
+        <v>170</v>
+      </c>
+      <c r="C272" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F272" t="n">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>253</v>
+      </c>
+      <c r="B273" t="s">
+        <v>254</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D273" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="147">
         <v>176</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>179</v>
-      </c>
-      <c r="B278" t="s">
-        <v>180</v>
-      </c>
-      <c r="C278" t="s">
-        <v>181</v>
-      </c>
-      <c r="D278" t="s">
-        <v>182</v>
-      </c>
-      <c r="E278" t="s">
-        <v>183</v>
-      </c>
-      <c r="F278" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>179</v>
+      </c>
+      <c r="B280" t="s">
+        <v>180</v>
+      </c>
+      <c r="C280" t="s">
+        <v>181</v>
+      </c>
+      <c r="D280" t="s">
+        <v>182</v>
+      </c>
+      <c r="E280" t="s">
+        <v>183</v>
+      </c>
+      <c r="F280" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
         <v>169</v>
       </c>
-      <c r="B279" t="s">
-        <v>173</v>
-      </c>
-      <c r="C279" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="D279" t="n">
-        <v>429.97</v>
-      </c>
-      <c r="E279" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F279" t="n">
-        <v>429.97</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="s" s="46">
+      <c r="B281" t="s">
+        <v>170</v>
+      </c>
+      <c r="C281" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D281" t="n">
+        <v>624.94</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F281" t="n">
+        <v>624.94</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>253</v>
+      </c>
+      <c r="B282" t="s">
+        <v>254</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D282" t="n">
+        <v>624.94</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F282" t="n">
+        <v>624.94</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="148">
         <v>176</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s">
-        <v>179</v>
-      </c>
-      <c r="B286" t="s">
-        <v>180</v>
-      </c>
-      <c r="C286" t="s">
-        <v>181</v>
-      </c>
-      <c r="D286" t="s">
-        <v>182</v>
-      </c>
-      <c r="E286" t="s">
-        <v>183</v>
-      </c>
-      <c r="F286" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>179</v>
+      </c>
+      <c r="B289" t="s">
+        <v>180</v>
+      </c>
+      <c r="C289" t="s">
+        <v>181</v>
+      </c>
+      <c r="D289" t="s">
+        <v>182</v>
+      </c>
+      <c r="E289" t="s">
+        <v>183</v>
+      </c>
+      <c r="F289" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
         <v>169</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B290" t="s">
         <v>173</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C290" t="n">
         <v>25.0</v>
       </c>
-      <c r="D287" t="n">
-        <v>627.15</v>
-      </c>
-      <c r="E287" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F287" t="n">
-        <v>627.15</v>
+      <c r="D290" t="n">
+        <v>430.14</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F290" t="n">
+        <v>430.14</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="47">
+      <c r="A291" t="s">
+        <v>253</v>
+      </c>
+      <c r="B291" t="s">
+        <v>254</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D291" t="n">
+        <v>430.14</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F291" t="n">
+        <v>430.14</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="149">
         <v>176</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s">
+    <row r="296">
+      <c r="A296" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
         <v>179</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B298" t="s">
         <v>180</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C298" t="s">
         <v>181</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D298" t="s">
         <v>182</v>
       </c>
-      <c r="E294" t="s">
+      <c r="E298" t="s">
         <v>183</v>
       </c>
-      <c r="F294" t="s">
+      <c r="F298" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" t="s">
+    <row r="299">
+      <c r="A299" t="s">
         <v>169</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B299" t="s">
         <v>173</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C299" t="n">
         <v>25.0</v>
       </c>
-      <c r="D295" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="E295" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F295" t="n">
-        <v>227.5</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="s" s="48">
-        <v>176</v>
+      <c r="D299" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F299" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s">
+        <v>253</v>
+      </c>
+      <c r="B300" t="s">
+        <v>254</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F300" t="n">
+        <v>118.0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="150">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
         <v>179</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B307" t="s">
         <v>180</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C307" t="s">
         <v>181</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D307" t="s">
         <v>182</v>
       </c>
-      <c r="E302" t="s">
+      <c r="E307" t="s">
         <v>183</v>
       </c>
-      <c r="F302" t="s">
+      <c r="F307" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s">
-        <v>140</v>
-      </c>
-      <c r="B303" t="s">
-        <v>153</v>
-      </c>
-      <c r="C303" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="D303" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="E303" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F303" t="n">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s" s="49">
-        <v>176</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>249</v>
+        <v>169</v>
+      </c>
+      <c r="B308" t="s">
+        <v>173</v>
+      </c>
+      <c r="C308" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D308" t="n">
+        <v>429.97</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F308" t="n">
+        <v>429.97</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="s">
-        <v>179</v>
-      </c>
-      <c r="B310" t="s">
-        <v>180</v>
-      </c>
-      <c r="C310" t="s">
-        <v>181</v>
-      </c>
-      <c r="D310" t="s">
-        <v>182</v>
-      </c>
-      <c r="E310" t="s">
-        <v>183</v>
-      </c>
-      <c r="F310" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s">
-        <v>164</v>
-      </c>
-      <c r="B311" t="s">
-        <v>165</v>
-      </c>
-      <c r="C311" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="D311" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="E311" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F311" t="n">
-        <v>300.0</v>
+        <v>253</v>
+      </c>
+      <c r="B309" t="s">
+        <v>254</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D309" t="n">
+        <v>429.97</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F309" t="n">
+        <v>429.97</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="151">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="50">
-        <v>176</v>
+      <c r="A315" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>251</v>
+        <v>179</v>
+      </c>
+      <c r="B316" t="s">
+        <v>180</v>
+      </c>
+      <c r="C316" t="s">
+        <v>181</v>
+      </c>
+      <c r="D316" t="s">
+        <v>182</v>
+      </c>
+      <c r="E316" t="s">
+        <v>183</v>
+      </c>
+      <c r="F316" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>252</v>
+        <v>169</v>
+      </c>
+      <c r="B317" t="s">
+        <v>173</v>
+      </c>
+      <c r="C317" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D317" t="n">
+        <v>627.15</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F317" t="n">
+        <v>627.15</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
+        <v>253</v>
+      </c>
+      <c r="B318" t="s">
+        <v>254</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D318" t="n">
+        <v>627.15</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F318" t="n">
+        <v>627.15</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="152">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
         <v>179</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B325" t="s">
         <v>180</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C325" t="s">
         <v>181</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D325" t="s">
         <v>182</v>
       </c>
-      <c r="E318" t="s">
+      <c r="E325" t="s">
         <v>183</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F325" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" t="s">
+    <row r="326">
+      <c r="A326" t="s">
+        <v>169</v>
+      </c>
+      <c r="B326" t="s">
+        <v>173</v>
+      </c>
+      <c r="C326" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D326" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F326" t="n">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>253</v>
+      </c>
+      <c r="B327" t="s">
+        <v>254</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D327" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F327" t="n">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="153">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>179</v>
+      </c>
+      <c r="B334" t="s">
+        <v>180</v>
+      </c>
+      <c r="C334" t="s">
+        <v>181</v>
+      </c>
+      <c r="D334" t="s">
+        <v>182</v>
+      </c>
+      <c r="E334" t="s">
+        <v>183</v>
+      </c>
+      <c r="F334" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>140</v>
+      </c>
+      <c r="B335" t="s">
+        <v>153</v>
+      </c>
+      <c r="C335" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D335" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F335" t="n">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>253</v>
+      </c>
+      <c r="B336" t="s">
+        <v>254</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D336" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F336" t="n">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="154">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>179</v>
+      </c>
+      <c r="B343" t="s">
+        <v>180</v>
+      </c>
+      <c r="C343" t="s">
+        <v>181</v>
+      </c>
+      <c r="D343" t="s">
+        <v>182</v>
+      </c>
+      <c r="E343" t="s">
+        <v>183</v>
+      </c>
+      <c r="F343" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>164</v>
+      </c>
+      <c r="B344" t="s">
+        <v>165</v>
+      </c>
+      <c r="C344" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D344" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F344" t="n">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>253</v>
+      </c>
+      <c r="B345" t="s">
+        <v>254</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D345" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F345" t="n">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="155">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>179</v>
+      </c>
+      <c r="B352" t="s">
+        <v>180</v>
+      </c>
+      <c r="C352" t="s">
+        <v>181</v>
+      </c>
+      <c r="D352" t="s">
+        <v>182</v>
+      </c>
+      <c r="E352" t="s">
+        <v>183</v>
+      </c>
+      <c r="F352" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
         <v>136</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B353" t="s">
         <v>139</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C353" t="n">
         <v>13.0</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D353" t="n">
         <v>14245.2</v>
       </c>
-      <c r="E319" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F319" t="n">
+      <c r="E353" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F353" t="n">
         <v>14245.2</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" t="s">
+    <row r="354">
+      <c r="A354" t="s">
         <v>140</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B354" t="s">
         <v>150</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C354" t="n">
         <v>15.0</v>
       </c>
-      <c r="D320" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E320" t="n">
+      <c r="D354" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E354" t="n">
         <v>3103.8</v>
       </c>
-      <c r="F320" t="n">
+      <c r="F354" t="n">
         <v>11141.400000000001</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" t="s">
+    <row r="355">
+      <c r="A355" t="s">
         <v>166</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B355" t="s">
         <v>168</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C355" t="n">
         <v>23.0</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D355" t="n">
         <v>9157.07</v>
       </c>
-      <c r="E321" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F321" t="n">
+      <c r="E355" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F355" t="n">
+        <v>20298.47</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>253</v>
+      </c>
+      <c r="B356" t="s">
+        <v>254</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D356" t="n">
+        <v>23402.27</v>
+      </c>
+      <c r="E356" t="n">
+        <v>3103.8</v>
+      </c>
+      <c r="F356" t="n">
         <v>20298.47</v>
       </c>
     </row>
@@ -5563,108 +6584,108 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A97:F97"/>
     <mergeCell ref="A98:F98"/>
     <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A100:F100"/>
     <mergeCell ref="A106:F106"/>
     <mergeCell ref="A107:F107"/>
     <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A114:F114"/>
     <mergeCell ref="A115:F115"/>
     <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="A117:F117"/>
     <mergeCell ref="A124:F124"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="A147:F147"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="A149:F149"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A156:F156"/>
-    <mergeCell ref="A157:F157"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="A153:F153"/>
+    <mergeCell ref="A161:F161"/>
+    <mergeCell ref="A162:F162"/>
     <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A164:F164"/>
-    <mergeCell ref="A165:F165"/>
-    <mergeCell ref="A175:F175"/>
-    <mergeCell ref="A176:F176"/>
-    <mergeCell ref="A177:F177"/>
-    <mergeCell ref="A183:F183"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A185:F185"/>
-    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="A170:F170"/>
+    <mergeCell ref="A171:F171"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="A180:F180"/>
+    <mergeCell ref="A181:F181"/>
     <mergeCell ref="A192:F192"/>
     <mergeCell ref="A193:F193"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A200:F200"/>
+    <mergeCell ref="A194:F194"/>
     <mergeCell ref="A201:F201"/>
-    <mergeCell ref="A207:F207"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A209:F209"/>
-    <mergeCell ref="A218:F218"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="A203:F203"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A211:F211"/>
+    <mergeCell ref="A212:F212"/>
     <mergeCell ref="A219:F219"/>
     <mergeCell ref="A220:F220"/>
-    <mergeCell ref="A227:F227"/>
+    <mergeCell ref="A221:F221"/>
     <mergeCell ref="A228:F228"/>
     <mergeCell ref="A229:F229"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A236:F236"/>
-    <mergeCell ref="A237:F237"/>
-    <mergeCell ref="A243:F243"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A245:F245"/>
+    <mergeCell ref="A230:F230"/>
+    <mergeCell ref="A240:F240"/>
+    <mergeCell ref="A241:F241"/>
+    <mergeCell ref="A242:F242"/>
+    <mergeCell ref="A250:F250"/>
     <mergeCell ref="A251:F251"/>
     <mergeCell ref="A252:F252"/>
-    <mergeCell ref="A253:F253"/>
     <mergeCell ref="A259:F259"/>
     <mergeCell ref="A260:F260"/>
     <mergeCell ref="A261:F261"/>
-    <mergeCell ref="A267:F267"/>
     <mergeCell ref="A268:F268"/>
     <mergeCell ref="A269:F269"/>
-    <mergeCell ref="A275:F275"/>
-    <mergeCell ref="A276:F276"/>
+    <mergeCell ref="A270:F270"/>
     <mergeCell ref="A277:F277"/>
-    <mergeCell ref="A283:F283"/>
-    <mergeCell ref="A284:F284"/>
-    <mergeCell ref="A285:F285"/>
-    <mergeCell ref="A291:F291"/>
-    <mergeCell ref="A292:F292"/>
-    <mergeCell ref="A293:F293"/>
-    <mergeCell ref="A299:F299"/>
-    <mergeCell ref="A300:F300"/>
-    <mergeCell ref="A301:F301"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A308:F308"/>
-    <mergeCell ref="A309:F309"/>
+    <mergeCell ref="A278:F278"/>
+    <mergeCell ref="A279:F279"/>
+    <mergeCell ref="A286:F286"/>
+    <mergeCell ref="A287:F287"/>
+    <mergeCell ref="A288:F288"/>
+    <mergeCell ref="A295:F295"/>
+    <mergeCell ref="A296:F296"/>
+    <mergeCell ref="A297:F297"/>
+    <mergeCell ref="A304:F304"/>
+    <mergeCell ref="A305:F305"/>
+    <mergeCell ref="A306:F306"/>
+    <mergeCell ref="A313:F313"/>
+    <mergeCell ref="A314:F314"/>
     <mergeCell ref="A315:F315"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A317:F317"/>
+    <mergeCell ref="A322:F322"/>
+    <mergeCell ref="A323:F323"/>
+    <mergeCell ref="A324:F324"/>
+    <mergeCell ref="A331:F331"/>
+    <mergeCell ref="A332:F332"/>
+    <mergeCell ref="A333:F333"/>
+    <mergeCell ref="A340:F340"/>
+    <mergeCell ref="A341:F341"/>
+    <mergeCell ref="A342:F342"/>
+    <mergeCell ref="A349:F349"/>
+    <mergeCell ref="A350:F350"/>
+    <mergeCell ref="A351:F351"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Contabilidad.xlsx
+++ b/Contabilidad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4277" uniqueCount="255">
   <si>
     <t>Libro Diario</t>
   </si>
@@ -836,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="261">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -880,6 +880,321 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3075,7 +3390,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="121">
+      <c r="A1" t="s" s="226">
         <v>176</v>
       </c>
     </row>
@@ -3290,7 +3605,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="122">
+      <c r="A17" t="s" s="227">
         <v>176</v>
       </c>
     </row>
@@ -3385,7 +3700,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="123">
+      <c r="A27" t="s" s="228">
         <v>176</v>
       </c>
     </row>
@@ -3680,7 +3995,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="124">
+      <c r="A47" t="s" s="229">
         <v>176</v>
       </c>
     </row>
@@ -3795,7 +4110,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="125">
+      <c r="A58" t="s" s="230">
         <v>176</v>
       </c>
     </row>
@@ -3970,7 +4285,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="126">
+      <c r="A72" t="s" s="231">
         <v>176</v>
       </c>
     </row>
@@ -4045,7 +4360,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="127">
+      <c r="A81" t="s" s="232">
         <v>176</v>
       </c>
     </row>
@@ -4260,7 +4575,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="128">
+      <c r="A97" t="s" s="233">
         <v>176</v>
       </c>
     </row>
@@ -4311,7 +4626,7 @@
         <v>300.0</v>
       </c>
       <c r="F101" t="n">
-        <v>-300.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="102">
@@ -4335,7 +4650,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="129">
+      <c r="A106" t="s" s="234">
         <v>176</v>
       </c>
     </row>
@@ -4410,7 +4725,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="130">
+      <c r="A115" t="s" s="235">
         <v>176</v>
       </c>
     </row>
@@ -4461,7 +4776,7 @@
         <v>112.5</v>
       </c>
       <c r="F119" t="n">
-        <v>-112.5</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="120">
@@ -4485,7 +4800,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="131">
+      <c r="A124" t="s" s="236">
         <v>176</v>
       </c>
     </row>
@@ -4560,7 +4875,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="132">
+      <c r="A133" t="s" s="237">
         <v>176</v>
       </c>
     </row>
@@ -4611,7 +4926,7 @@
         <v>624.94</v>
       </c>
       <c r="F137" t="n">
-        <v>-624.94</v>
+        <v>624.94</v>
       </c>
     </row>
     <row r="138">
@@ -4635,7 +4950,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="133">
+      <c r="A142" t="s" s="238">
         <v>176</v>
       </c>
     </row>
@@ -4710,7 +5025,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="134">
+      <c r="A151" t="s" s="239">
         <v>176</v>
       </c>
     </row>
@@ -4761,7 +5076,7 @@
         <v>3500.0</v>
       </c>
       <c r="F155" t="n">
-        <v>-3500.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="156">
@@ -4781,7 +5096,7 @@
         <v>33600.0</v>
       </c>
       <c r="F156" t="n">
-        <v>-37100.0</v>
+        <v>37100.0</v>
       </c>
     </row>
     <row r="157">
@@ -4805,7 +5120,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="135">
+      <c r="A161" t="s" s="240">
         <v>176</v>
       </c>
     </row>
@@ -4856,7 +5171,7 @@
         <v>487.78</v>
       </c>
       <c r="F165" t="n">
-        <v>-487.78</v>
+        <v>487.78</v>
       </c>
     </row>
     <row r="166">
@@ -4880,7 +5195,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="136">
+      <c r="A170" t="s" s="241">
         <v>176</v>
       </c>
     </row>
@@ -4931,7 +5246,7 @@
         <v>627.15</v>
       </c>
       <c r="F174" t="n">
-        <v>-627.15</v>
+        <v>627.15</v>
       </c>
     </row>
     <row r="175">
@@ -4955,7 +5270,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="137">
+      <c r="A179" t="s" s="242">
         <v>176</v>
       </c>
     </row>
@@ -5006,7 +5321,7 @@
         <v>1710.0</v>
       </c>
       <c r="F183" t="n">
-        <v>-1710.0</v>
+        <v>1710.0</v>
       </c>
     </row>
     <row r="184">
@@ -5026,7 +5341,7 @@
         <v>3450.0</v>
       </c>
       <c r="F184" t="n">
-        <v>-5160.0</v>
+        <v>5160.0</v>
       </c>
     </row>
     <row r="185">
@@ -5046,7 +5361,7 @@
         <v>0.0</v>
       </c>
       <c r="F185" t="n">
-        <v>-4410.0</v>
+        <v>5910.0</v>
       </c>
     </row>
     <row r="186">
@@ -5066,7 +5381,7 @@
         <v>2220.0</v>
       </c>
       <c r="F186" t="n">
-        <v>-6630.0</v>
+        <v>3690.0</v>
       </c>
     </row>
     <row r="187">
@@ -5086,7 +5401,7 @@
         <v>0.0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0</v>
+        <v>10320.0</v>
       </c>
     </row>
     <row r="188">
@@ -5106,11 +5421,11 @@
         <v>7380.0</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0</v>
+        <v>10320.0</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="138">
+      <c r="A192" t="s" s="243">
         <v>176</v>
       </c>
     </row>
@@ -5161,7 +5476,7 @@
         <v>55.0</v>
       </c>
       <c r="F196" t="n">
-        <v>-55.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="197">
@@ -5185,7 +5500,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="139">
+      <c r="A201" t="s" s="244">
         <v>176</v>
       </c>
     </row>
@@ -5236,7 +5551,7 @@
         <v>1857.6</v>
       </c>
       <c r="F205" t="n">
-        <v>-1857.6</v>
+        <v>1857.6</v>
       </c>
     </row>
     <row r="206">
@@ -5260,7 +5575,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="140">
+      <c r="A210" t="s" s="245">
         <v>176</v>
       </c>
     </row>
@@ -5311,7 +5626,7 @@
         <v>1500.0</v>
       </c>
       <c r="F214" t="n">
-        <v>-1500.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="215">
@@ -5335,7 +5650,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="141">
+      <c r="A219" t="s" s="246">
         <v>176</v>
       </c>
     </row>
@@ -5386,7 +5701,7 @@
         <v>118500.0</v>
       </c>
       <c r="F223" t="n">
-        <v>-118500.0</v>
+        <v>118500.0</v>
       </c>
     </row>
     <row r="224">
@@ -5410,7 +5725,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="142">
+      <c r="A228" t="s" s="247">
         <v>176</v>
       </c>
     </row>
@@ -5461,7 +5776,7 @@
         <v>14250.0</v>
       </c>
       <c r="F232" t="n">
-        <v>-14250.0</v>
+        <v>14250.0</v>
       </c>
     </row>
     <row r="233">
@@ -5481,7 +5796,7 @@
         <v>28750.0</v>
       </c>
       <c r="F233" t="n">
-        <v>-43000.0</v>
+        <v>43000.0</v>
       </c>
     </row>
     <row r="234">
@@ -5501,7 +5816,7 @@
         <v>0.0</v>
       </c>
       <c r="F234" t="n">
-        <v>-36750.0</v>
+        <v>49250.0</v>
       </c>
     </row>
     <row r="235">
@@ -5521,7 +5836,7 @@
         <v>18500.0</v>
       </c>
       <c r="F235" t="n">
-        <v>-55250.0</v>
+        <v>30750.0</v>
       </c>
     </row>
     <row r="236">
@@ -5541,11 +5856,11 @@
         <v>61500.0</v>
       </c>
       <c r="F236" t="n">
-        <v>55250.0</v>
+        <v>30750.0</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="143">
+      <c r="A240" t="s" s="248">
         <v>176</v>
       </c>
     </row>
@@ -5640,7 +5955,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="144">
+      <c r="A250" t="s" s="249">
         <v>176</v>
       </c>
     </row>
@@ -5715,7 +6030,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="145">
+      <c r="A259" t="s" s="250">
         <v>176</v>
       </c>
     </row>
@@ -5790,7 +6105,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="146">
+      <c r="A268" t="s" s="251">
         <v>176</v>
       </c>
     </row>
@@ -5865,7 +6180,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="147">
+      <c r="A277" t="s" s="252">
         <v>176</v>
       </c>
     </row>
@@ -5940,7 +6255,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="148">
+      <c r="A286" t="s" s="253">
         <v>176</v>
       </c>
     </row>
@@ -6015,7 +6330,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="149">
+      <c r="A295" t="s" s="254">
         <v>176</v>
       </c>
     </row>
@@ -6090,7 +6405,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="150">
+      <c r="A304" t="s" s="255">
         <v>176</v>
       </c>
     </row>
@@ -6165,7 +6480,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="151">
+      <c r="A313" t="s" s="256">
         <v>176</v>
       </c>
     </row>
@@ -6240,7 +6555,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="152">
+      <c r="A322" t="s" s="257">
         <v>176</v>
       </c>
     </row>
@@ -6315,7 +6630,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="153">
+      <c r="A331" t="s" s="258">
         <v>176</v>
       </c>
     </row>
@@ -6390,7 +6705,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="154">
+      <c r="A340" t="s" s="259">
         <v>176</v>
       </c>
     </row>
@@ -6465,7 +6780,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="155">
+      <c r="A349" t="s" s="260">
         <v>176</v>
       </c>
     </row>

--- a/Contabilidad.xlsx
+++ b/Contabilidad.xlsx
@@ -128,15 +128,15 @@
     <t>DEPRECIACION ACUMULADA MUEBLES DE OFICINA</t>
   </si>
   <si>
+    <t>1.2.03</t>
+  </si>
+  <si>
+    <t>EQUIPO DE COMPUTO</t>
+  </si>
+  <si>
     <t>Clientes</t>
   </si>
   <si>
-    <t>1.2.03</t>
-  </si>
-  <si>
-    <t>EQUIPO DE COMPUTO</t>
-  </si>
-  <si>
     <t>1.2.04</t>
   </si>
   <si>
@@ -206,24 +206,30 @@
     <t>2.2</t>
   </si>
   <si>
+    <t>Equipo de computo</t>
+  </si>
+  <si>
     <t>PASIVO NO CORRIENTE</t>
   </si>
   <si>
     <t>2.2.01</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>PRESTAMOS BANCARIOS LARGO PLAZO</t>
   </si>
   <si>
+    <t>Proveedores</t>
+  </si>
+  <si>
     <t>3.</t>
   </si>
   <si>
     <t>PATRIMONIO</t>
   </si>
   <si>
-    <t>Equipo de computo</t>
-  </si>
-  <si>
     <t>3.1.</t>
   </si>
   <si>
@@ -233,52 +239,70 @@
     <t>3.1.01</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>CAPITAL</t>
   </si>
   <si>
-    <t>Proveedores</t>
+    <t>Prestamos bancarios largo plazo</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>El estado de situacion inicial</t>
+  </si>
+  <si>
+    <t>Junio 02</t>
+  </si>
+  <si>
+    <t>Bancos</t>
+  </si>
+  <si>
+    <t>Apertura cuenta corriente No deposito en efectivo</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>IVA ventas</t>
   </si>
   <si>
     <t>Estado de Resultado Integral</t>
   </si>
   <si>
-    <t>Prestamos bancarios largo plazo</t>
+    <t>Venta mercaderias segun factura No</t>
+  </si>
+  <si>
+    <t>Costo de venta</t>
   </si>
   <si>
     <t>4.</t>
   </si>
   <si>
-    <t>Capital</t>
-  </si>
-  <si>
     <t>INGRESOS</t>
   </si>
   <si>
     <t>4.1</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>INGRESOS OPERACIONALES</t>
   </si>
   <si>
-    <t>El estado de situacion inicial</t>
+    <t>Venta de mercaderia precio de costo</t>
   </si>
   <si>
     <t>4.1.01</t>
   </si>
   <si>
-    <t>Junio 02</t>
-  </si>
-  <si>
     <t>VENTAS</t>
   </si>
   <si>
-    <t>Bancos</t>
+    <t>Deposito de la venta realizada</t>
+  </si>
+  <si>
+    <t>Junio 05</t>
   </si>
   <si>
     <t>5.</t>
@@ -287,22 +311,22 @@
     <t>GASTOS</t>
   </si>
   <si>
-    <t>Apertura cuenta corriente No deposito en efectivo</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
     <t>GASTOS OPERACIONALES</t>
   </si>
   <si>
+    <t>Contratacion de una poliza al 2.5% mensual</t>
+  </si>
+  <si>
     <t>5.1.01</t>
   </si>
   <si>
     <t>SUELDOS Y SALARIOS</t>
   </si>
   <si>
-    <t>Ventas</t>
+    <t>Arriendos</t>
   </si>
   <si>
     <t>5.1.02</t>
@@ -311,7 +335,7 @@
     <t>ARRIENDOS</t>
   </si>
   <si>
-    <t>IVA ventas</t>
+    <t>IVA compras</t>
   </si>
   <si>
     <t>5.1.03</t>
@@ -323,16 +347,16 @@
     <t>5.1.04</t>
   </si>
   <si>
-    <t>Venta mercaderias segun factura No</t>
-  </si>
-  <si>
     <t>GASTOS DEPRECIACION MUEBLES DE OFICINA</t>
   </si>
   <si>
+    <t>Arriendo</t>
+  </si>
+  <si>
     <t>5.1.05</t>
   </si>
   <si>
-    <t>Costo de venta</t>
+    <t>Caja Chica</t>
   </si>
   <si>
     <t>GASTOS DEPRECIACION EQUIPO DE COMPUTO</t>
@@ -350,7 +374,7 @@
     <t>Decimo Cuarto</t>
   </si>
   <si>
-    <t>Venta de mercaderia precio de costo</t>
+    <t>Apertura de fondo de caja chica con cheque No 002</t>
   </si>
   <si>
     <t>5.1.08</t>
@@ -359,6 +383,9 @@
     <t>Fondos de Reserva</t>
   </si>
   <si>
+    <t>Junio 06</t>
+  </si>
+  <si>
     <t>5.1.09</t>
   </si>
   <si>
@@ -377,45 +404,30 @@
     <t>Horas extra</t>
   </si>
   <si>
-    <t>Deposito de la venta realizada</t>
-  </si>
-  <si>
-    <t>Junio 05</t>
-  </si>
-  <si>
-    <t>Contratacion de una poliza al 2.5% mensual</t>
-  </si>
-  <si>
-    <t>Arriendos</t>
-  </si>
-  <si>
-    <t>IVA compras</t>
-  </si>
-  <si>
-    <t>Arriendo</t>
-  </si>
-  <si>
-    <t>Caja Chica</t>
-  </si>
-  <si>
-    <t>Apertura de fondo de caja chica con cheque No 002</t>
-  </si>
-  <si>
-    <t>Junio 06</t>
-  </si>
-  <si>
     <t>Compra de mercaderia</t>
   </si>
   <si>
+    <t>Junio 07</t>
+  </si>
+  <si>
+    <t>Transporte y movilizacion</t>
+  </si>
+  <si>
+    <t>Pago transporte Guayaquil</t>
+  </si>
+  <si>
+    <t>Junio 09</t>
+  </si>
+  <si>
+    <t>Devolucion 5 impresoras por estar en mal estado de la compra 6 de junio</t>
+  </si>
+  <si>
+    <t>Junio 10</t>
+  </si>
+  <si>
     <t>5.1.12</t>
   </si>
   <si>
-    <t>Junio 07</t>
-  </si>
-  <si>
-    <t>Transporte y movilizacion</t>
-  </si>
-  <si>
     <t>5.1.13</t>
   </si>
   <si>
@@ -425,6 +437,9 @@
     <t>5.1.14</t>
   </si>
   <si>
+    <t>Venta de computadoras</t>
+  </si>
+  <si>
     <t>Honorarios</t>
   </si>
   <si>
@@ -434,37 +449,22 @@
     <t>Impuestos Fiscales</t>
   </si>
   <si>
-    <t>Pago transporte Guayaquil</t>
-  </si>
-  <si>
-    <t>Junio 09</t>
-  </si>
-  <si>
-    <t>Devolucion 5 impresoras por estar en mal estado de la compra 6 de junio</t>
-  </si>
-  <si>
-    <t>Junio 10</t>
+    <t>Registro precio de costo</t>
+  </si>
+  <si>
+    <t>Junio 12</t>
+  </si>
+  <si>
+    <t>Devolucion ventas</t>
   </si>
   <si>
     <t>GASTOS NO OPERACIONALES</t>
   </si>
   <si>
-    <t>Venta de computadoras</t>
-  </si>
-  <si>
     <t>5.2.01</t>
   </si>
   <si>
     <t>Costo de Venta</t>
-  </si>
-  <si>
-    <t>Registro precio de costo</t>
-  </si>
-  <si>
-    <t>Junio 12</t>
-  </si>
-  <si>
-    <t>Devolucion ventas</t>
   </si>
   <si>
     <t>Devolucion ventas a precio de costo</t>
@@ -877,10 +877,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -1033,7 +1033,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="26" customWidth="true" width="7.63" collapsed="true"/>
+    <col min="1" max="26" customWidth="true" width="7.63" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1168,10 +1168,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -1271,72 +1271,72 @@
         <v>63</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="9"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="4"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
@@ -1345,138 +1345,138 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66">
@@ -1484,15 +1484,15 @@
         <v>5.2</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70">
@@ -1520,7 +1520,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="26" customWidth="true" width="7.63" collapsed="true"/>
+    <col min="1" max="26" customWidth="true" width="7.63" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1559,7 +1559,7 @@
     <row r="4">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6">
@@ -1595,7 +1595,7 @@
     </row>
     <row r="7">
       <c r="B7" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D7" s="7">
         <v>25000.0</v>
@@ -1608,23 +1608,23 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E8" s="7">
         <v>3500.0</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9">
       <c r="C9" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="7">
         <v>1500.0</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="10">
       <c r="C10" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" s="7">
         <v>118500.0</v>
@@ -1640,18 +1640,18 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D12" s="7">
         <v>15000.0</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>13</v>
@@ -1670,15 +1670,15 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
@@ -1689,10 +1689,10 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E16" s="7">
         <v>14250.0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="17">
       <c r="C17" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E17" s="7">
         <v>1710.0</v>
@@ -1708,18 +1708,18 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D19" s="7">
         <v>7250.0</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>27</v>
@@ -1738,18 +1738,18 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D22" s="7">
         <v>15960.0</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
@@ -1768,15 +1768,15 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>44</v>
@@ -1787,10 +1787,10 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E26" s="7">
         <v>5000.0</v>
@@ -1798,18 +1798,18 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D28" s="7">
         <v>200.0</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="29">
       <c r="B29" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D29" s="7">
         <v>24.0</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E30" s="7">
         <v>224.0</v>
@@ -1836,18 +1836,18 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D32" s="7">
         <v>100.0</v>
@@ -1855,10 +1855,10 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E33" s="7">
         <v>100.0</v>
@@ -1866,15 +1866,15 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>27</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="36">
       <c r="B36" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D36" s="7">
         <v>1320.0</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E37" s="7">
         <v>12320.0</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>130</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="D39" s="7">
         <v>100.0</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>13</v>
@@ -1934,15 +1934,15 @@
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>13</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>27</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="44">
       <c r="C44" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E44" s="7">
         <v>180.0</v>
@@ -1972,18 +1972,18 @@
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D46" s="7">
         <v>28750.0</v>
@@ -2001,10 +2001,10 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E48" s="7">
         <v>28750.0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="49">
       <c r="C49" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E49" s="7">
         <v>3450.0</v>
@@ -2020,18 +2020,18 @@
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D51" s="7">
         <v>14245.2</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>27</v>
@@ -2050,18 +2050,18 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D54" s="7">
         <v>6250.0</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="55">
       <c r="B55" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D55" s="7">
         <v>750.0</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E56" s="7">
         <v>6250.0</v>
@@ -2096,15 +2096,15 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>27</v>
@@ -2115,10 +2115,10 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E60" s="7">
         <v>3103.8</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>151</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>152</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E63" s="7">
         <v>300.0</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>153</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D65" s="7">
         <v>500.0</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E66" s="7">
         <v>500.0</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>154</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="69">
       <c r="B69" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7">
@@ -2214,7 +2214,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>157</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>158</v>
@@ -2244,10 +2244,10 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E73" s="7">
         <v>300.0</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>160</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="76">
       <c r="B76" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D76" s="7">
         <v>3600.0</v>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E77" s="7">
         <v>33600.0</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>130</v>
@@ -2304,7 +2304,7 @@
         <v>162</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D79" s="7">
         <v>300.0</v>
@@ -2312,10 +2312,10 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E80" s="7">
         <v>300.0</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>163</v>
@@ -2334,7 +2334,7 @@
         <v>164</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D82" s="7">
         <v>20720.0</v>
@@ -2342,10 +2342,10 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E83" s="7">
         <v>18500.0</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="84">
       <c r="C84" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E84" s="7">
         <v>2220.0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>165</v>
@@ -2372,7 +2372,7 @@
         <v>164</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D86" s="7">
         <v>9157.07</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>27</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>166</v>
@@ -2402,7 +2402,7 @@
         <v>167</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D89" s="7">
         <v>14850.0</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="90">
       <c r="B90" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D90" s="7">
         <v>150.0</v>
@@ -2418,10 +2418,10 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E91" s="7">
         <v>15000.0</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>168</v>
@@ -2440,7 +2440,7 @@
         <v>167</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D93" s="7">
         <v>112.5</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="94">
       <c r="B94" s="14" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D94" s="7">
         <v>624.94</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>37</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>169</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="99">
       <c r="B99" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D99" s="7">
         <v>227.5</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="100">
       <c r="B100" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D100" s="7">
         <v>430.21</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="101">
       <c r="B101" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D101" s="7">
         <v>430.14</v>
@@ -2519,7 +2519,7 @@
     <row r="102">
       <c r="A102" s="5"/>
       <c r="B102" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="3">
@@ -2532,16 +2532,16 @@
       <c r="B103" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C103" s="10"/>
+      <c r="C103" s="9"/>
       <c r="D103" s="15">
         <v>429.97</v>
       </c>
-      <c r="E103" s="10"/>
+      <c r="E103" s="9"/>
     </row>
     <row r="104">
       <c r="A104" s="5"/>
       <c r="B104" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="6">
@@ -2551,7 +2551,7 @@
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="3" t="s">
@@ -2568,7 +2568,7 @@
       <c r="C106" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D106" s="10"/>
+      <c r="D106" s="9"/>
       <c r="E106" s="15">
         <v>627.15</v>
       </c>
@@ -2599,7 +2599,7 @@
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="6">
@@ -2608,21 +2608,21 @@
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="6">
@@ -2632,11 +2632,11 @@
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="3">
@@ -2656,7 +2656,7 @@
     </row>
     <row r="114">
       <c r="A114" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>173</v>
@@ -2682,9 +2682,9 @@
     <row r="117">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
     </row>
     <row r="118">
       <c r="A118" s="5"/>
@@ -2703,9 +2703,9 @@
     <row r="120">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
     </row>
     <row r="121">
       <c r="A121" s="5"/>
@@ -2724,9 +2724,9 @@
     <row r="123">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
     </row>
     <row r="124">
       <c r="A124" s="5"/>
@@ -2752,9 +2752,9 @@
     <row r="127">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
     </row>
     <row r="128">
       <c r="A128" s="5"/>
@@ -2774,14 +2774,14 @@
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
-      <c r="D130" s="10"/>
+      <c r="D130" s="9"/>
       <c r="E130" s="8"/>
     </row>
     <row r="131">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
-      <c r="D131" s="10"/>
+      <c r="D131" s="9"/>
       <c r="E131" s="5"/>
     </row>
   </sheetData>
@@ -2840,7 +2840,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -2877,10 +2877,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
         <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>103</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -2897,10 +2897,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C8" t="n">
         <v>5.0</v>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C9" t="n">
         <v>10.0</v>
@@ -2937,10 +2937,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C10" t="n">
         <v>11.0</v>
@@ -2957,10 +2957,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C11" t="n">
         <v>12.0</v>
@@ -2977,10 +2977,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -3052,10 +3052,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C21" t="n">
         <v>8.0</v>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C31" t="n">
         <v>2.0</v>
@@ -3167,10 +3167,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C32" t="n">
         <v>5.0</v>
@@ -3187,10 +3187,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C33" t="n">
         <v>6.0</v>
@@ -3207,10 +3207,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C34" t="n">
         <v>7.0</v>
@@ -3227,10 +3227,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C35" t="n">
         <v>8.0</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
         <v>130</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
         <v>153</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s">
         <v>154</v>
@@ -3465,7 +3465,7 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C52" t="n">
         <v>1.0</v>
@@ -3482,10 +3482,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C53" t="n">
         <v>12.0</v>
@@ -3502,10 +3502,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C54" t="n">
         <v>14.0</v>
@@ -3577,10 +3577,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C63" t="n">
         <v>7.0</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
         <v>130</v>
@@ -3617,10 +3617,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C65" t="n">
         <v>11.0</v>
@@ -3830,7 +3830,7 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C86" t="n">
         <v>1.0</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B87" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C87" t="n">
         <v>4.0</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
         <v>130</v>
@@ -3887,10 +3887,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B89" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C89" t="n">
         <v>11.0</v>
@@ -3907,10 +3907,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C90" t="n">
         <v>13.0</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B91" t="s">
         <v>151</v>
@@ -4140,7 +4140,7 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C112" t="n">
         <v>1.0</v>
@@ -4290,7 +4290,7 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C130" t="n">
         <v>1.0</v>
@@ -4437,10 +4437,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B148" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C148" t="n">
         <v>6.0</v>
@@ -4515,7 +4515,7 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C157" t="n">
         <v>1.0</v>
@@ -4757,10 +4757,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>80</v>
+      </c>
+      <c r="B185" t="s">
         <v>86</v>
-      </c>
-      <c r="B185" t="s">
-        <v>103</v>
       </c>
       <c r="C185" t="n">
         <v>3.0</v>
@@ -4777,10 +4777,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B186" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C186" t="n">
         <v>12.0</v>
@@ -4797,10 +4797,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B187" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C187" t="n">
         <v>14.0</v>
@@ -5065,7 +5065,7 @@
         <v>11</v>
       </c>
       <c r="B216" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C216" t="n">
         <v>1.0</v>
@@ -5160,7 +5160,7 @@
         <v>11</v>
       </c>
       <c r="B226" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C226" t="n">
         <v>1.0</v>
@@ -5232,10 +5232,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
+        <v>80</v>
+      </c>
+      <c r="B235" t="s">
         <v>86</v>
-      </c>
-      <c r="B235" t="s">
-        <v>103</v>
       </c>
       <c r="C235" t="n">
         <v>3.0</v>
@@ -5252,10 +5252,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B236" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C236" t="n">
         <v>12.0</v>
@@ -5272,10 +5272,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B237" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C237" t="n">
         <v>14.0</v>
@@ -5442,10 +5442,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B256" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C256" t="n">
         <v>7.0</v>
@@ -5517,7 +5517,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B265" t="s">
         <v>153</v>
@@ -6192,10 +6192,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B346" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C346" t="n">
         <v>10.0</v>
@@ -6267,7 +6267,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B355" t="s">
         <v>154</v>
@@ -6492,10 +6492,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B382" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C382" t="n">
         <v>4.0</v>
@@ -6512,10 +6512,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B383" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C383" t="n">
         <v>13.0</v>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B384" t="s">
         <v>151</v>

--- a/Contabilidad.xlsx
+++ b/Contabilidad.xlsx
@@ -5,14 +5,15 @@
   <sheets>
     <sheet state="visible" name="Libro Diario" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="Plan de Cuentas" sheetId="2" r:id="rId4"/>
-    <sheet name="Libro Mayor" r:id="rId5" sheetId="3"/>
+    <sheet name="Libro Mayor" r:id="rId5" sheetId="5"/>
+    <sheet name="Balance de Comprobacion" r:id="rId6" sheetId="6"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="289">
   <si>
     <t>Libro Diario</t>
   </si>
@@ -792,6 +793,93 @@
   </si>
   <si>
     <t>Codigo: 5.2.01</t>
+  </si>
+  <si>
+    <t>Balance de comprobacion</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>Suma Debe</t>
+  </si>
+  <si>
+    <t>Suma Haber</t>
+  </si>
+  <si>
+    <t>Saldo Debe</t>
+  </si>
+  <si>
+    <t>Saldo Haber</t>
+  </si>
+  <si>
+    <t>CAJA</t>
+  </si>
+  <si>
+    <t>INVENTARIO DE MERCADERIAS</t>
+  </si>
+  <si>
+    <t>ANTICIPO SUELDOS</t>
+  </si>
+  <si>
+    <t>MUEBLES DE OFICINA</t>
+  </si>
+  <si>
+    <t>INVERSIONES FINANCIERAS</t>
+  </si>
+  <si>
+    <t>APORTE INDIVIDUAL POR PAGAR</t>
+  </si>
+  <si>
+    <t>APORTE PATRONAL POR PAGAR</t>
+  </si>
+  <si>
+    <t>MULTAS POR PAGAR</t>
+  </si>
+  <si>
+    <t>IVA POR PAGAR</t>
+  </si>
+  <si>
+    <t>DECIMO TERCERO</t>
+  </si>
+  <si>
+    <t>DECIMO CUARTO</t>
+  </si>
+  <si>
+    <t>FONDOS DE RESERVA</t>
+  </si>
+  <si>
+    <t>APORTE PATRONAL</t>
+  </si>
+  <si>
+    <t>COMISIONES</t>
+  </si>
+  <si>
+    <t>HORAS EXTRA</t>
+  </si>
+  <si>
+    <t>TRANSPORTE Y MOVILIZACION</t>
+  </si>
+  <si>
+    <t>VIATICOS</t>
+  </si>
+  <si>
+    <t>HONORARIOS</t>
+  </si>
+  <si>
+    <t>IMPUESTOS FISCALES</t>
+  </si>
+  <si>
+    <t>COSTO DE VENTA</t>
+  </si>
+  <si>
+    <t>TOTALES</t>
   </si>
 </sst>
 </file>
@@ -851,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="132">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -895,6 +983,240 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1033,7 +1355,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="26" customWidth="true" width="7.63" collapsed="false"/>
+    <col min="1" max="26" customWidth="true" width="7.63" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1520,7 +1842,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="26" customWidth="true" width="7.63" collapsed="false"/>
+    <col min="1" max="26" customWidth="true" width="7.63" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2792,7 +3114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2801,7 +3123,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="16">
+      <c r="A1" t="s" s="93">
         <v>175</v>
       </c>
     </row>
@@ -3016,7 +3338,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="17">
+      <c r="A17" t="s" s="94">
         <v>175</v>
       </c>
     </row>
@@ -3111,7 +3433,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="18">
+      <c r="A27" t="s" s="95">
         <v>175</v>
       </c>
     </row>
@@ -3426,7 +3748,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="19">
+      <c r="A48" t="s" s="96">
         <v>175</v>
       </c>
     </row>
@@ -3541,7 +3863,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="20">
+      <c r="A59" t="s" s="97">
         <v>175</v>
       </c>
     </row>
@@ -3716,7 +4038,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="21">
+      <c r="A73" t="s" s="98">
         <v>175</v>
       </c>
     </row>
@@ -3791,7 +4113,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="22">
+      <c r="A82" t="s" s="99">
         <v>175</v>
       </c>
     </row>
@@ -4006,7 +4328,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="23">
+      <c r="A98" t="s" s="100">
         <v>175</v>
       </c>
     </row>
@@ -4101,7 +4423,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="24">
+      <c r="A108" t="s" s="101">
         <v>175</v>
       </c>
     </row>
@@ -4176,7 +4498,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="25">
+      <c r="A117" t="s" s="102">
         <v>175</v>
       </c>
     </row>
@@ -4251,7 +4573,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="26">
+      <c r="A126" t="s" s="103">
         <v>175</v>
       </c>
     </row>
@@ -4326,7 +4648,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="27">
+      <c r="A135" t="s" s="104">
         <v>175</v>
       </c>
     </row>
@@ -4401,7 +4723,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="28">
+      <c r="A144" t="s" s="105">
         <v>175</v>
       </c>
     </row>
@@ -4476,7 +4798,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="29">
+      <c r="A153" t="s" s="106">
         <v>175</v>
       </c>
     </row>
@@ -4571,7 +4893,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="30">
+      <c r="A163" t="s" s="107">
         <v>175</v>
       </c>
     </row>
@@ -4646,7 +4968,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="31">
+      <c r="A172" t="s" s="108">
         <v>175</v>
       </c>
     </row>
@@ -4721,7 +5043,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="32">
+      <c r="A181" t="s" s="109">
         <v>175</v>
       </c>
     </row>
@@ -4876,7 +5198,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="33">
+      <c r="A194" t="s" s="110">
         <v>175</v>
       </c>
     </row>
@@ -4951,7 +5273,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="34">
+      <c r="A203" t="s" s="111">
         <v>175</v>
       </c>
     </row>
@@ -5026,7 +5348,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="35">
+      <c r="A212" t="s" s="112">
         <v>175</v>
       </c>
     </row>
@@ -5121,7 +5443,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="36">
+      <c r="A222" t="s" s="113">
         <v>175</v>
       </c>
     </row>
@@ -5196,7 +5518,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="37">
+      <c r="A231" t="s" s="114">
         <v>175</v>
       </c>
     </row>
@@ -5331,7 +5653,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="38">
+      <c r="A243" t="s" s="115">
         <v>175</v>
       </c>
     </row>
@@ -5406,7 +5728,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="39">
+      <c r="A252" t="s" s="116">
         <v>175</v>
       </c>
     </row>
@@ -5481,7 +5803,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="40">
+      <c r="A261" t="s" s="117">
         <v>175</v>
       </c>
     </row>
@@ -5556,7 +5878,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="41">
+      <c r="A270" t="s" s="118">
         <v>175</v>
       </c>
     </row>
@@ -5631,7 +5953,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="42">
+      <c r="A279" t="s" s="119">
         <v>175</v>
       </c>
     </row>
@@ -5706,7 +6028,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="43">
+      <c r="A288" t="s" s="120">
         <v>175</v>
       </c>
     </row>
@@ -5781,7 +6103,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="44">
+      <c r="A297" t="s" s="121">
         <v>175</v>
       </c>
     </row>
@@ -5856,7 +6178,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="45">
+      <c r="A306" t="s" s="122">
         <v>175</v>
       </c>
     </row>
@@ -5931,7 +6253,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="46">
+      <c r="A315" t="s" s="123">
         <v>175</v>
       </c>
     </row>
@@ -6006,7 +6328,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="47">
+      <c r="A324" t="s" s="124">
         <v>175</v>
       </c>
     </row>
@@ -6081,7 +6403,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="s" s="48">
+      <c r="A333" t="s" s="125">
         <v>175</v>
       </c>
     </row>
@@ -6156,7 +6478,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="49">
+      <c r="A342" t="s" s="126">
         <v>175</v>
       </c>
     </row>
@@ -6231,7 +6553,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="50">
+      <c r="A351" t="s" s="127">
         <v>175</v>
       </c>
     </row>
@@ -6306,7 +6628,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="51">
+      <c r="A360" t="s" s="128">
         <v>175</v>
       </c>
     </row>
@@ -6381,7 +6703,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="s" s="52">
+      <c r="A369" t="s" s="129">
         <v>175</v>
       </c>
     </row>
@@ -6456,7 +6778,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="s" s="53">
+      <c r="A378" t="s" s="130">
         <v>175</v>
       </c>
     </row>
@@ -6709,4 +7031,939 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="131">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" t="n">
+        <v>46090.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>31810.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14280.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>78.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>21.599999999999994</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>66530.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24341.04</v>
+      </c>
+      <c r="F6" t="n">
+        <v>42188.96</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32250.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6250.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26000.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4952.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4952.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" t="n">
+        <v>99103.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32152.27</v>
+      </c>
+      <c r="F10" t="n">
+        <v>66951.53</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>624.94</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>624.94</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>37100.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>37100.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>487.78</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>487.78</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>627.15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>627.15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7380.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7380.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1857.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1857.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>16500.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>118500.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>118500.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6250.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>61500.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>55250.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4504.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4504.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" t="n">
+        <v>624.94</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>624.94</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" t="n">
+        <v>430.14</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>430.14</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D32" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" t="n">
+        <v>429.97</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>429.97</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>280</v>
+      </c>
+      <c r="D34" t="n">
+        <v>627.15</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>627.15</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s">
+        <v>281</v>
+      </c>
+      <c r="D35" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36" t="n">
+        <v>430.21</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>430.21</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>286</v>
+      </c>
+      <c r="D40" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" t="s">
+        <v>287</v>
+      </c>
+      <c r="D41" t="n">
+        <v>30652.27</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3103.8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>27548.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="s">
+        <v>288</v>
+      </c>
+      <c r="D42" t="n">
+        <v>347732.88000000006</v>
+      </c>
+      <c r="E42" t="n">
+        <v>347732.87999999995</v>
+      </c>
+      <c r="F42" t="n">
+        <v>231114.97</v>
+      </c>
+      <c r="G42" t="n">
+        <v>231114.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:H2"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Contabilidad.xlsx
+++ b/Contabilidad.xlsx
@@ -5,22 +5,22 @@
   <sheets>
     <sheet state="visible" name="Libro Diario" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="Plan de Cuentas" sheetId="2" r:id="rId4"/>
-    <sheet name="Libro Mayor" r:id="rId5" sheetId="5"/>
-    <sheet name="Balance de Comprobacion" r:id="rId6" sheetId="6"/>
+    <sheet name="Libro Mayor" r:id="rId5" sheetId="9"/>
+    <sheet name="Balance de Comprobacion" r:id="rId6" sheetId="10"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="289">
+  <si>
+    <t>Plan de cuentas</t>
+  </si>
   <si>
     <t>Libro Diario</t>
   </si>
   <si>
-    <t>Plan de cuentas</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -33,24 +33,24 @@
     <t>Nombre de Cuentas</t>
   </si>
   <si>
+    <t>Debitos</t>
+  </si>
+  <si>
+    <t>Creditos</t>
+  </si>
+  <si>
     <t>ACTIVO</t>
   </si>
   <si>
-    <t>Debitos</t>
+    <t>Junio 01</t>
   </si>
   <si>
     <t>1.1</t>
   </si>
   <si>
-    <t>Creditos</t>
-  </si>
-  <si>
     <t>ACTIVO CORRIENTE</t>
   </si>
   <si>
-    <t>Junio 01</t>
-  </si>
-  <si>
     <t>1.1.01</t>
   </si>
   <si>
@@ -135,51 +135,51 @@
     <t>EQUIPO DE COMPUTO</t>
   </si>
   <si>
+    <t>1.2.04</t>
+  </si>
+  <si>
+    <t>DEPRECIACION ACUMULADA EQUIPO DE COMPUTO</t>
+  </si>
+  <si>
+    <t>1.2.05</t>
+  </si>
+  <si>
+    <t>Inversiones financieras</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>PASIVO</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>PASIVO CORRIENTE</t>
+  </si>
+  <si>
+    <t>2.1.01</t>
+  </si>
+  <si>
+    <t>PROVEEDORES</t>
+  </si>
+  <si>
+    <t>2.1.02</t>
+  </si>
+  <si>
+    <t>Aporte individual por pagar</t>
+  </si>
+  <si>
+    <t>2.1.03</t>
+  </si>
+  <si>
+    <t>Aporte patronal por pagar</t>
+  </si>
+  <si>
     <t>Clientes</t>
   </si>
   <si>
-    <t>1.2.04</t>
-  </si>
-  <si>
-    <t>DEPRECIACION ACUMULADA EQUIPO DE COMPUTO</t>
-  </si>
-  <si>
-    <t>1.2.05</t>
-  </si>
-  <si>
-    <t>Inversiones financieras</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>PASIVO</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>PASIVO CORRIENTE</t>
-  </si>
-  <si>
-    <t>2.1.01</t>
-  </si>
-  <si>
-    <t>PROVEEDORES</t>
-  </si>
-  <si>
-    <t>2.1.02</t>
-  </si>
-  <si>
-    <t>Aporte individual por pagar</t>
-  </si>
-  <si>
-    <t>2.1.03</t>
-  </si>
-  <si>
-    <t>Aporte patronal por pagar</t>
-  </si>
-  <si>
     <t>2.1.04</t>
   </si>
   <si>
@@ -195,36 +195,36 @@
     <t>2.1.06</t>
   </si>
   <si>
+    <t>Equipo de computo</t>
+  </si>
+  <si>
     <t>IVA por pagar</t>
   </si>
   <si>
     <t>2.1.07</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>Prestamos bancarios a largo plazo</t>
   </si>
   <si>
+    <t>Proveedores</t>
+  </si>
+  <si>
     <t>2.2</t>
   </si>
   <si>
-    <t>Equipo de computo</t>
-  </si>
-  <si>
     <t>PASIVO NO CORRIENTE</t>
   </si>
   <si>
     <t>2.2.01</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>PRESTAMOS BANCARIOS LARGO PLAZO</t>
   </si>
   <si>
-    <t>Proveedores</t>
-  </si>
-  <si>
     <t>3.</t>
   </si>
   <si>
@@ -264,156 +264,186 @@
     <t>Apertura cuenta corriente No deposito en efectivo</t>
   </si>
   <si>
+    <t>Estado de Resultado Integral</t>
+  </si>
+  <si>
     <t>Ventas</t>
   </si>
   <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>INGRESOS</t>
+  </si>
+  <si>
     <t>IVA ventas</t>
   </si>
   <si>
-    <t>Estado de Resultado Integral</t>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>INGRESOS OPERACIONALES</t>
+  </si>
+  <si>
+    <t>4.1.01</t>
+  </si>
+  <si>
+    <t>VENTAS</t>
   </si>
   <si>
     <t>Venta mercaderias segun factura No</t>
   </si>
   <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>GASTOS</t>
+  </si>
+  <si>
     <t>Costo de venta</t>
   </si>
   <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>INGRESOS</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>INGRESOS OPERACIONALES</t>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>GASTOS OPERACIONALES</t>
+  </si>
+  <si>
+    <t>5.1.01</t>
+  </si>
+  <si>
+    <t>SUELDOS Y SALARIOS</t>
+  </si>
+  <si>
+    <t>5.1.02</t>
+  </si>
+  <si>
+    <t>ARRIENDOS</t>
+  </si>
+  <si>
+    <t>5.1.03</t>
   </si>
   <si>
     <t>Venta de mercaderia precio de costo</t>
   </si>
   <si>
-    <t>4.1.01</t>
-  </si>
-  <si>
-    <t>VENTAS</t>
+    <t>SERVICIOS BASICOS</t>
+  </si>
+  <si>
+    <t>5.1.04</t>
+  </si>
+  <si>
+    <t>GASTOS DEPRECIACION MUEBLES DE OFICINA</t>
+  </si>
+  <si>
+    <t>5.1.05</t>
+  </si>
+  <si>
+    <t>GASTOS DEPRECIACION EQUIPO DE COMPUTO</t>
+  </si>
+  <si>
+    <t>5.1.06</t>
+  </si>
+  <si>
+    <t>Decimo Tercero</t>
+  </si>
+  <si>
+    <t>5.1.07</t>
+  </si>
+  <si>
+    <t>Decimo Cuarto</t>
+  </si>
+  <si>
+    <t>5.1.08</t>
   </si>
   <si>
     <t>Deposito de la venta realizada</t>
   </si>
   <si>
+    <t>Fondos de Reserva</t>
+  </si>
+  <si>
+    <t>5.1.09</t>
+  </si>
+  <si>
     <t>Junio 05</t>
   </si>
   <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>GASTOS</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>GASTOS OPERACIONALES</t>
+    <t>Aporte patronal</t>
+  </si>
+  <si>
+    <t>5.1.10</t>
+  </si>
+  <si>
+    <t>Comisiones</t>
+  </si>
+  <si>
+    <t>5.1.11</t>
+  </si>
+  <si>
+    <t>Horas extra</t>
+  </si>
+  <si>
+    <t>5.1.12</t>
+  </si>
+  <si>
+    <t>Transporte y movilizacion</t>
+  </si>
+  <si>
+    <t>5.1.13</t>
+  </si>
+  <si>
+    <t>Viaticos</t>
+  </si>
+  <si>
+    <t>5.1.14</t>
+  </si>
+  <si>
+    <t>Honorarios</t>
+  </si>
+  <si>
+    <t>5.1.15</t>
+  </si>
+  <si>
+    <t>Impuestos Fiscales</t>
   </si>
   <si>
     <t>Contratacion de una poliza al 2.5% mensual</t>
   </si>
   <si>
-    <t>5.1.01</t>
-  </si>
-  <si>
-    <t>SUELDOS Y SALARIOS</t>
-  </si>
-  <si>
     <t>Arriendos</t>
   </si>
   <si>
-    <t>5.1.02</t>
-  </si>
-  <si>
-    <t>ARRIENDOS</t>
-  </si>
-  <si>
     <t>IVA compras</t>
   </si>
   <si>
-    <t>5.1.03</t>
-  </si>
-  <si>
-    <t>SERVICIOS BASICOS</t>
-  </si>
-  <si>
-    <t>5.1.04</t>
-  </si>
-  <si>
-    <t>GASTOS DEPRECIACION MUEBLES DE OFICINA</t>
+    <t>GASTOS NO OPERACIONALES</t>
+  </si>
+  <si>
+    <t>5.2.01</t>
+  </si>
+  <si>
+    <t>Costo de Venta</t>
   </si>
   <si>
     <t>Arriendo</t>
   </si>
   <si>
-    <t>5.1.05</t>
-  </si>
-  <si>
     <t>Caja Chica</t>
   </si>
   <si>
-    <t>GASTOS DEPRECIACION EQUIPO DE COMPUTO</t>
-  </si>
-  <si>
-    <t>5.1.06</t>
-  </si>
-  <si>
-    <t>Decimo Tercero</t>
-  </si>
-  <si>
-    <t>5.1.07</t>
-  </si>
-  <si>
-    <t>Decimo Cuarto</t>
-  </si>
-  <si>
     <t>Apertura de fondo de caja chica con cheque No 002</t>
   </si>
   <si>
-    <t>5.1.08</t>
-  </si>
-  <si>
-    <t>Fondos de Reserva</t>
-  </si>
-  <si>
     <t>Junio 06</t>
   </si>
   <si>
-    <t>5.1.09</t>
-  </si>
-  <si>
-    <t>Aporte patronal</t>
-  </si>
-  <si>
-    <t>5.1.10</t>
-  </si>
-  <si>
-    <t>Comisiones</t>
-  </si>
-  <si>
-    <t>5.1.11</t>
-  </si>
-  <si>
-    <t>Horas extra</t>
-  </si>
-  <si>
     <t>Compra de mercaderia</t>
   </si>
   <si>
     <t>Junio 07</t>
   </si>
   <si>
-    <t>Transporte y movilizacion</t>
-  </si>
-  <si>
     <t>Pago transporte Guayaquil</t>
   </si>
   <si>
@@ -426,30 +456,9 @@
     <t>Junio 10</t>
   </si>
   <si>
-    <t>5.1.12</t>
-  </si>
-  <si>
-    <t>5.1.13</t>
-  </si>
-  <si>
-    <t>Viaticos</t>
-  </si>
-  <si>
-    <t>5.1.14</t>
-  </si>
-  <si>
     <t>Venta de computadoras</t>
   </si>
   <si>
-    <t>Honorarios</t>
-  </si>
-  <si>
-    <t>5.1.15</t>
-  </si>
-  <si>
-    <t>Impuestos Fiscales</t>
-  </si>
-  <si>
     <t>Registro precio de costo</t>
   </si>
   <si>
@@ -457,15 +466,6 @@
   </si>
   <si>
     <t>Devolucion ventas</t>
-  </si>
-  <si>
-    <t>GASTOS NO OPERACIONALES</t>
-  </si>
-  <si>
-    <t>5.2.01</t>
-  </si>
-  <si>
-    <t>Costo de Venta</t>
   </si>
   <si>
     <t>Devolucion ventas a precio de costo</t>
@@ -939,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="172">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -983,6 +983,126 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1360,7 +1480,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1373,15 +1493,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1498,18 +1618,18 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1518,42 +1638,42 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="31">
@@ -1577,31 +1697,31 @@
         <v>59</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39">
@@ -1634,31 +1754,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47">
@@ -1667,138 +1787,138 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66">
@@ -1806,15 +1926,15 @@
         <v>5.2</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70">
@@ -1832,6 +1952,941 @@
     <mergeCell ref="A43:E43"/>
   </mergeCells>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="171">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" t="n">
+        <v>46090.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>31810.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14280.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>78.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>21.599999999999994</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>66530.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24341.04</v>
+      </c>
+      <c r="F6" t="n">
+        <v>42188.96</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32250.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6250.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26000.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4952.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4952.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" t="n">
+        <v>99103.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32152.27</v>
+      </c>
+      <c r="F10" t="n">
+        <v>66951.53</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>624.94</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>624.94</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>37100.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>37100.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>487.78</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>487.78</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>627.15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>627.15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7380.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7380.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1857.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1857.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>16500.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>118500.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>118500.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6250.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>61500.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>55250.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4504.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4504.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="n">
+        <v>624.94</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>624.94</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" t="n">
+        <v>430.14</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>430.14</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D32" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" t="n">
+        <v>429.97</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>429.97</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
+        <v>280</v>
+      </c>
+      <c r="D34" t="n">
+        <v>627.15</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>627.15</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>281</v>
+      </c>
+      <c r="D35" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36" t="n">
+        <v>430.21</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>430.21</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" t="s">
+        <v>286</v>
+      </c>
+      <c r="D40" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" t="s">
+        <v>287</v>
+      </c>
+      <c r="D41" t="n">
+        <v>30652.27</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3103.8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>27548.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="s">
+        <v>288</v>
+      </c>
+      <c r="D42" t="n">
+        <v>347732.88000000006</v>
+      </c>
+      <c r="E42" t="n">
+        <v>347732.87999999995</v>
+      </c>
+      <c r="F42" t="n">
+        <v>231114.97</v>
+      </c>
+      <c r="G42" t="n">
+        <v>231114.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:H2"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1847,7 +2902,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -1859,15 +2914,15 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -1881,7 +2936,7 @@
     <row r="4">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6">
@@ -1917,7 +2972,7 @@
     </row>
     <row r="7">
       <c r="B7" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D7" s="7">
         <v>25000.0</v>
@@ -1930,10 +2985,10 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E8" s="7">
         <v>3500.0</v>
@@ -1981,7 +3036,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>13</v>
@@ -2011,10 +3066,10 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" s="7">
         <v>14250.0</v>
@@ -2022,7 +3077,7 @@
     </row>
     <row r="17">
       <c r="C17" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E17" s="7">
         <v>1710.0</v>
@@ -2033,7 +3088,7 @@
         <v>78</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
@@ -2041,7 +3096,7 @@
         <v>80</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D19" s="7">
         <v>7250.0</v>
@@ -2049,7 +3104,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>27</v>
@@ -2063,7 +3118,7 @@
         <v>78</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
@@ -2079,7 +3134,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
@@ -2093,15 +3148,15 @@
         <v>78</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="7">
         <v>5000.0</v>
@@ -2109,7 +3164,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>81</v>
@@ -2123,15 +3178,15 @@
         <v>78</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D28" s="7">
         <v>200.0</v>
@@ -2139,7 +3194,7 @@
     </row>
     <row r="29">
       <c r="B29" s="7" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D29" s="7">
         <v>24.0</v>
@@ -2147,7 +3202,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>81</v>
@@ -2161,15 +3216,15 @@
         <v>78</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D32" s="7">
         <v>100.0</v>
@@ -2177,7 +3232,7 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>81</v>
@@ -2191,12 +3246,12 @@
         <v>78</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>27</v>
@@ -2207,7 +3262,7 @@
     </row>
     <row r="36">
       <c r="B36" s="7" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D36" s="7">
         <v>1320.0</v>
@@ -2215,7 +3270,7 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>81</v>
@@ -2229,15 +3284,15 @@
         <v>78</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D39" s="7">
         <v>100.0</v>
@@ -2245,7 +3300,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>13</v>
@@ -2259,12 +3314,12 @@
         <v>78</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>13</v>
@@ -2275,7 +3330,7 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>27</v>
@@ -2286,7 +3341,7 @@
     </row>
     <row r="44">
       <c r="C44" s="7" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="E44" s="7">
         <v>180.0</v>
@@ -2297,15 +3352,15 @@
         <v>78</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D46" s="7">
         <v>28750.0</v>
@@ -2323,10 +3378,10 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E48" s="7">
         <v>28750.0</v>
@@ -2334,7 +3389,7 @@
     </row>
     <row r="49">
       <c r="C49" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E49" s="7">
         <v>3450.0</v>
@@ -2345,15 +3400,15 @@
         <v>78</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D51" s="7">
         <v>14245.2</v>
@@ -2361,7 +3416,7 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>27</v>
@@ -2375,15 +3430,15 @@
         <v>78</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D54" s="7">
         <v>6250.0</v>
@@ -2391,7 +3446,7 @@
     </row>
     <row r="55">
       <c r="B55" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D55" s="7">
         <v>750.0</v>
@@ -2399,10 +3454,10 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E56" s="7">
         <v>6250.0</v>
@@ -2421,12 +3476,12 @@
         <v>78</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>27</v>
@@ -2437,10 +3492,10 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E60" s="7">
         <v>3103.8</v>
@@ -2456,7 +3511,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>152</v>
@@ -2467,7 +3522,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>81</v>
@@ -2486,10 +3541,10 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D65" s="7">
         <v>500.0</v>
@@ -2497,7 +3552,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>81</v>
@@ -2527,7 +3582,7 @@
     </row>
     <row r="69">
       <c r="B69" s="7" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7">
@@ -2536,7 +3591,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>157</v>
@@ -2566,7 +3621,7 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>81</v>
@@ -2596,7 +3651,7 @@
     </row>
     <row r="76">
       <c r="B76" s="7" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D76" s="7">
         <v>3600.0</v>
@@ -2604,10 +3659,10 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E77" s="7">
         <v>33600.0</v>
@@ -2618,7 +3673,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
@@ -2626,7 +3681,7 @@
         <v>162</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D79" s="7">
         <v>300.0</v>
@@ -2634,7 +3689,7 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>81</v>
@@ -2664,10 +3719,10 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E83" s="7">
         <v>18500.0</v>
@@ -2675,7 +3730,7 @@
     </row>
     <row r="84">
       <c r="C84" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E84" s="7">
         <v>2220.0</v>
@@ -2694,7 +3749,7 @@
         <v>164</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D86" s="7">
         <v>9157.07</v>
@@ -2702,7 +3757,7 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>27</v>
@@ -2732,7 +3787,7 @@
     </row>
     <row r="90">
       <c r="B90" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D90" s="7">
         <v>150.0</v>
@@ -2740,10 +3795,10 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E91" s="7">
         <v>15000.0</v>
@@ -2762,7 +3817,7 @@
         <v>167</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D93" s="7">
         <v>112.5</v>
@@ -2770,7 +3825,7 @@
     </row>
     <row r="94">
       <c r="B94" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D94" s="7">
         <v>624.94</v>
@@ -2778,7 +3833,7 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>37</v>
@@ -2789,7 +3844,7 @@
     </row>
     <row r="96">
       <c r="C96" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E96" s="7">
         <v>624.94</v>
@@ -2816,7 +3871,7 @@
     </row>
     <row r="99">
       <c r="B99" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D99" s="7">
         <v>227.5</v>
@@ -2824,7 +3879,7 @@
     </row>
     <row r="100">
       <c r="B100" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D100" s="7">
         <v>430.21</v>
@@ -2832,7 +3887,7 @@
     </row>
     <row r="101">
       <c r="B101" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D101" s="7">
         <v>430.14</v>
@@ -2841,7 +3896,7 @@
     <row r="102">
       <c r="A102" s="5"/>
       <c r="B102" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="3">
@@ -2863,7 +3918,7 @@
     <row r="104">
       <c r="A104" s="5"/>
       <c r="B104" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="6">
@@ -2873,11 +3928,11 @@
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="6">
@@ -2888,7 +3943,7 @@
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="15">
@@ -2944,7 +3999,7 @@
         <v>167</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="6">
@@ -2954,11 +4009,11 @@
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="3" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="3">
@@ -2969,7 +4024,7 @@
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="3">
@@ -3114,7 +4169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3123,7 +4178,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="93">
+      <c r="A1" t="s" s="133">
         <v>175</v>
       </c>
     </row>
@@ -3159,7 +4214,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>79</v>
@@ -3202,7 +4257,7 @@
         <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -3222,7 +4277,7 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C8" t="n">
         <v>5.0</v>
@@ -3239,10 +4294,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C9" t="n">
         <v>10.0</v>
@@ -3259,10 +4314,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C10" t="n">
         <v>11.0</v>
@@ -3279,10 +4334,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C11" t="n">
         <v>12.0</v>
@@ -3299,10 +4354,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -3338,7 +4393,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="94">
+      <c r="A17" t="s" s="134">
         <v>175</v>
       </c>
     </row>
@@ -3374,10 +4429,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C21" t="n">
         <v>8.0</v>
@@ -3433,7 +4488,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="95">
+      <c r="A27" t="s" s="135">
         <v>175</v>
       </c>
     </row>
@@ -3492,7 +4547,7 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C32" t="n">
         <v>5.0</v>
@@ -3509,10 +4564,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C33" t="n">
         <v>6.0</v>
@@ -3529,10 +4584,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C34" t="n">
         <v>7.0</v>
@@ -3549,10 +4604,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C35" t="n">
         <v>8.0</v>
@@ -3569,10 +4624,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C36" t="n">
         <v>9.0</v>
@@ -3589,7 +4644,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B37" t="s">
         <v>153</v>
@@ -3609,7 +4664,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
         <v>154</v>
@@ -3748,7 +4803,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="96">
+      <c r="A48" t="s" s="136">
         <v>175</v>
       </c>
     </row>
@@ -3784,7 +4839,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
         <v>79</v>
@@ -3804,10 +4859,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C53" t="n">
         <v>12.0</v>
@@ -3824,10 +4879,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C54" t="n">
         <v>14.0</v>
@@ -3863,7 +4918,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="97">
+      <c r="A59" t="s" s="137">
         <v>175</v>
       </c>
     </row>
@@ -3899,10 +4954,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C63" t="n">
         <v>7.0</v>
@@ -3919,10 +4974,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C64" t="n">
         <v>9.0</v>
@@ -3939,10 +4994,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C65" t="n">
         <v>11.0</v>
@@ -3982,7 +5037,7 @@
         <v>161</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C67" t="n">
         <v>20.0</v>
@@ -4038,7 +5093,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="98">
+      <c r="A73" t="s" s="138">
         <v>175</v>
       </c>
     </row>
@@ -4113,7 +5168,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="99">
+      <c r="A82" t="s" s="139">
         <v>175</v>
       </c>
     </row>
@@ -4149,7 +5204,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
         <v>79</v>
@@ -4172,7 +5227,7 @@
         <v>80</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C87" t="n">
         <v>4.0</v>
@@ -4189,10 +5244,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B88" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C88" t="n">
         <v>9.0</v>
@@ -4209,10 +5264,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B89" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C89" t="n">
         <v>11.0</v>
@@ -4229,10 +5284,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B90" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C90" t="n">
         <v>13.0</v>
@@ -4249,7 +5304,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s">
         <v>151</v>
@@ -4272,7 +5327,7 @@
         <v>161</v>
       </c>
       <c r="B92" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C92" t="n">
         <v>20.0</v>
@@ -4328,7 +5383,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="100">
+      <c r="A98" t="s" s="140">
         <v>175</v>
       </c>
     </row>
@@ -4423,7 +5478,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="101">
+      <c r="A108" t="s" s="141">
         <v>175</v>
       </c>
     </row>
@@ -4459,7 +5514,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
         <v>79</v>
@@ -4498,7 +5553,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="102">
+      <c r="A117" t="s" s="142">
         <v>175</v>
       </c>
     </row>
@@ -4573,7 +5628,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="103">
+      <c r="A126" t="s" s="143">
         <v>175</v>
       </c>
     </row>
@@ -4609,7 +5664,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
         <v>79</v>
@@ -4648,7 +5703,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="104">
+      <c r="A135" t="s" s="144">
         <v>175</v>
       </c>
     </row>
@@ -4723,7 +5778,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="105">
+      <c r="A144" t="s" s="145">
         <v>175</v>
       </c>
     </row>
@@ -4759,10 +5814,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B148" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C148" t="n">
         <v>6.0</v>
@@ -4798,7 +5853,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="106">
+      <c r="A153" t="s" s="146">
         <v>175</v>
       </c>
     </row>
@@ -4834,7 +5889,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B157" t="s">
         <v>79</v>
@@ -4857,7 +5912,7 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C158" t="n">
         <v>20.0</v>
@@ -4893,7 +5948,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="107">
+      <c r="A163" t="s" s="147">
         <v>175</v>
       </c>
     </row>
@@ -4968,7 +6023,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="108">
+      <c r="A172" t="s" s="148">
         <v>175</v>
       </c>
     </row>
@@ -5043,7 +6098,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="109">
+      <c r="A181" t="s" s="149">
         <v>175</v>
       </c>
     </row>
@@ -5082,7 +6137,7 @@
         <v>80</v>
       </c>
       <c r="B185" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C185" t="n">
         <v>3.0</v>
@@ -5099,10 +6154,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B186" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C186" t="n">
         <v>12.0</v>
@@ -5119,10 +6174,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B187" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C187" t="n">
         <v>14.0</v>
@@ -5198,7 +6253,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="110">
+      <c r="A194" t="s" s="150">
         <v>175</v>
       </c>
     </row>
@@ -5273,7 +6328,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="111">
+      <c r="A203" t="s" s="151">
         <v>175</v>
       </c>
     </row>
@@ -5348,7 +6403,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="112">
+      <c r="A212" t="s" s="152">
         <v>175</v>
       </c>
     </row>
@@ -5384,7 +6439,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B216" t="s">
         <v>79</v>
@@ -5443,7 +6498,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="113">
+      <c r="A222" t="s" s="153">
         <v>175</v>
       </c>
     </row>
@@ -5479,7 +6534,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B226" t="s">
         <v>79</v>
@@ -5518,7 +6573,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="114">
+      <c r="A231" t="s" s="154">
         <v>175</v>
       </c>
     </row>
@@ -5557,7 +6612,7 @@
         <v>80</v>
       </c>
       <c r="B235" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C235" t="n">
         <v>3.0</v>
@@ -5574,10 +6629,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B236" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C236" t="n">
         <v>12.0</v>
@@ -5594,10 +6649,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B237" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C237" t="n">
         <v>14.0</v>
@@ -5653,7 +6708,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="115">
+      <c r="A243" t="s" s="155">
         <v>175</v>
       </c>
     </row>
@@ -5728,7 +6783,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="116">
+      <c r="A252" t="s" s="156">
         <v>175</v>
       </c>
     </row>
@@ -5764,10 +6819,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B256" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C256" t="n">
         <v>7.0</v>
@@ -5803,7 +6858,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="117">
+      <c r="A261" t="s" s="157">
         <v>175</v>
       </c>
     </row>
@@ -5839,7 +6894,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B265" t="s">
         <v>153</v>
@@ -5878,7 +6933,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="118">
+      <c r="A270" t="s" s="158">
         <v>175</v>
       </c>
     </row>
@@ -5953,7 +7008,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="119">
+      <c r="A279" t="s" s="159">
         <v>175</v>
       </c>
     </row>
@@ -6028,7 +7083,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="120">
+      <c r="A288" t="s" s="160">
         <v>175</v>
       </c>
     </row>
@@ -6103,7 +7158,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="121">
+      <c r="A297" t="s" s="161">
         <v>175</v>
       </c>
     </row>
@@ -6178,7 +7233,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="122">
+      <c r="A306" t="s" s="162">
         <v>175</v>
       </c>
     </row>
@@ -6253,7 +7308,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="123">
+      <c r="A315" t="s" s="163">
         <v>175</v>
       </c>
     </row>
@@ -6328,7 +7383,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="124">
+      <c r="A324" t="s" s="164">
         <v>175</v>
       </c>
     </row>
@@ -6403,7 +7458,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="s" s="125">
+      <c r="A333" t="s" s="165">
         <v>175</v>
       </c>
     </row>
@@ -6478,7 +7533,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="126">
+      <c r="A342" t="s" s="166">
         <v>175</v>
       </c>
     </row>
@@ -6514,10 +7569,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B346" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C346" t="n">
         <v>10.0</v>
@@ -6553,7 +7608,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="127">
+      <c r="A351" t="s" s="167">
         <v>175</v>
       </c>
     </row>
@@ -6589,7 +7644,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B355" t="s">
         <v>154</v>
@@ -6628,7 +7683,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="128">
+      <c r="A360" t="s" s="168">
         <v>175</v>
       </c>
     </row>
@@ -6703,7 +7758,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="s" s="129">
+      <c r="A369" t="s" s="169">
         <v>175</v>
       </c>
     </row>
@@ -6778,7 +7833,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="s" s="130">
+      <c r="A378" t="s" s="170">
         <v>175</v>
       </c>
     </row>
@@ -6817,7 +7872,7 @@
         <v>80</v>
       </c>
       <c r="B382" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C382" t="n">
         <v>4.0</v>
@@ -6834,10 +7889,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B383" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C383" t="n">
         <v>13.0</v>
@@ -6854,7 +7909,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B384" t="s">
         <v>151</v>
@@ -7031,939 +8086,4 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="131">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" t="n">
-        <v>46090.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>31810.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14280.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>78.4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>21.599999999999994</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>66530.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>24341.04</v>
-      </c>
-      <c r="F6" t="n">
-        <v>42188.96</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="n">
-        <v>32250.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6250.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>26000.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4952.4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4952.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>269</v>
-      </c>
-      <c r="D10" t="n">
-        <v>99103.8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>32152.27</v>
-      </c>
-      <c r="F10" t="n">
-        <v>66951.53</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>271</v>
-      </c>
-      <c r="D12" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>112.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>624.94</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>624.94</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>272</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5000.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5000.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>37100.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>37100.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>273</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>487.78</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>487.78</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>274</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>627.15</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>627.15</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7380.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7380.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>276</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1857.6</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1857.6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>16500.0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>16500.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>118500.0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>118500.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" t="n">
-        <v>6250.0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>61500.0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>55250.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" t="n">
-        <v>4504.0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4504.0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" t="n">
-        <v>112.5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>112.5</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" t="n">
-        <v>624.94</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>624.94</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" t="s">
-        <v>277</v>
-      </c>
-      <c r="D31" t="n">
-        <v>430.14</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>430.14</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" t="s">
-        <v>278</v>
-      </c>
-      <c r="D32" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" t="s">
-        <v>279</v>
-      </c>
-      <c r="D33" t="n">
-        <v>429.97</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>429.97</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" t="s">
-        <v>280</v>
-      </c>
-      <c r="D34" t="n">
-        <v>627.15</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>627.15</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" t="s">
-        <v>281</v>
-      </c>
-      <c r="D35" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" t="s">
-        <v>282</v>
-      </c>
-      <c r="D36" t="n">
-        <v>430.21</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>430.21</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" t="s">
-        <v>283</v>
-      </c>
-      <c r="D37" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" t="s">
-        <v>284</v>
-      </c>
-      <c r="D38" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>140</v>
-      </c>
-      <c r="C39" t="s">
-        <v>285</v>
-      </c>
-      <c r="D39" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" t="s">
-        <v>286</v>
-      </c>
-      <c r="D40" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" t="s">
-        <v>287</v>
-      </c>
-      <c r="D41" t="n">
-        <v>30652.27</v>
-      </c>
-      <c r="E41" t="n">
-        <v>3103.8</v>
-      </c>
-      <c r="F41" t="n">
-        <v>27548.47</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" t="s">
-        <v>288</v>
-      </c>
-      <c r="D42" t="n">
-        <v>347732.88000000006</v>
-      </c>
-      <c r="E42" t="n">
-        <v>347732.87999999995</v>
-      </c>
-      <c r="F42" t="n">
-        <v>231114.97</v>
-      </c>
-      <c r="G42" t="n">
-        <v>231114.97</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:H2"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/Contabilidad.xlsx
+++ b/Contabilidad.xlsx
@@ -5,22 +5,22 @@
   <sheets>
     <sheet state="visible" name="Libro Diario" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="Plan de Cuentas" sheetId="2" r:id="rId4"/>
-    <sheet name="Libro Mayor" r:id="rId5" sheetId="9"/>
-    <sheet name="Balance de Comprobacion" r:id="rId6" sheetId="10"/>
+    <sheet name="Libro Mayor" r:id="rId5" sheetId="3"/>
+    <sheet name="Balance de Comprobacion" r:id="rId6" sheetId="4"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="289">
+  <si>
+    <t>Libro Diario</t>
+  </si>
   <si>
     <t>Plan de cuentas</t>
   </si>
   <si>
-    <t>Libro Diario</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -33,99 +33,99 @@
     <t>Nombre de Cuentas</t>
   </si>
   <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>ACTIVO CORRIENTE</t>
+  </si>
+  <si>
+    <t>1.1.01</t>
+  </si>
+  <si>
+    <t>Caja</t>
+  </si>
+  <si>
+    <t>1.1.02</t>
+  </si>
+  <si>
+    <t>CAJA CHICA</t>
+  </si>
+  <si>
+    <t>1.1.03</t>
+  </si>
+  <si>
+    <t>BANCOS</t>
+  </si>
+  <si>
+    <t>1.1.04</t>
+  </si>
+  <si>
+    <t>CLIENTES</t>
+  </si>
+  <si>
+    <t>1.1.05</t>
+  </si>
+  <si>
+    <t>IVA COMPRAS</t>
+  </si>
+  <si>
+    <t>1.1.06</t>
+  </si>
+  <si>
+    <t>SUMINISTROS DE OFICINA</t>
+  </si>
+  <si>
+    <t>1.1.07</t>
+  </si>
+  <si>
+    <t>suministros de aseo y limpieza</t>
+  </si>
+  <si>
+    <t>1.1.08</t>
+  </si>
+  <si>
+    <t>Inventario de mercaderias</t>
+  </si>
+  <si>
+    <t>1.1.09</t>
+  </si>
+  <si>
+    <t>Anticipo sueldos</t>
+  </si>
+  <si>
+    <t>1.1.10</t>
+  </si>
+  <si>
+    <t>PUBLICIDAD PREPAGADA</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>ACTIVO NO CORRIENTE</t>
+  </si>
+  <si>
+    <t>1.2.01</t>
+  </si>
+  <si>
     <t>Debitos</t>
   </si>
   <si>
+    <t>Muebles de oficina</t>
+  </si>
+  <si>
     <t>Creditos</t>
   </si>
   <si>
-    <t>ACTIVO</t>
+    <t>1.2.02</t>
   </si>
   <si>
     <t>Junio 01</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>ACTIVO CORRIENTE</t>
-  </si>
-  <si>
-    <t>1.1.01</t>
-  </si>
-  <si>
-    <t>Caja</t>
-  </si>
-  <si>
-    <t>1.1.02</t>
-  </si>
-  <si>
-    <t>CAJA CHICA</t>
-  </si>
-  <si>
-    <t>1.1.03</t>
-  </si>
-  <si>
-    <t>BANCOS</t>
-  </si>
-  <si>
-    <t>1.1.04</t>
-  </si>
-  <si>
-    <t>CLIENTES</t>
-  </si>
-  <si>
-    <t>1.1.05</t>
-  </si>
-  <si>
-    <t>IVA COMPRAS</t>
-  </si>
-  <si>
-    <t>1.1.06</t>
-  </si>
-  <si>
-    <t>SUMINISTROS DE OFICINA</t>
-  </si>
-  <si>
-    <t>1.1.07</t>
-  </si>
-  <si>
-    <t>suministros de aseo y limpieza</t>
-  </si>
-  <si>
-    <t>1.1.08</t>
-  </si>
-  <si>
-    <t>Inventario de mercaderias</t>
-  </si>
-  <si>
-    <t>1.1.09</t>
-  </si>
-  <si>
-    <t>Anticipo sueldos</t>
-  </si>
-  <si>
-    <t>1.1.10</t>
-  </si>
-  <si>
-    <t>PUBLICIDAD PREPAGADA</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>ACTIVO NO CORRIENTE</t>
-  </si>
-  <si>
-    <t>1.2.01</t>
-  </si>
-  <si>
-    <t>Muebles de oficina</t>
-  </si>
-  <si>
-    <t>1.2.02</t>
-  </si>
-  <si>
     <t>DEPRECIACION ACUMULADA MUEBLES DE OFICINA</t>
   </si>
   <si>
@@ -177,192 +177,192 @@
     <t>Aporte patronal por pagar</t>
   </si>
   <si>
+    <t>2.1.04</t>
+  </si>
+  <si>
+    <t>IVA VENTAS</t>
+  </si>
+  <si>
+    <t>2.1.05</t>
+  </si>
+  <si>
+    <t>Multas por pagar</t>
+  </si>
+  <si>
+    <t>2.1.06</t>
+  </si>
+  <si>
+    <t>IVA por pagar</t>
+  </si>
+  <si>
     <t>Clientes</t>
   </si>
   <si>
-    <t>2.1.04</t>
-  </si>
-  <si>
-    <t>IVA VENTAS</t>
-  </si>
-  <si>
-    <t>2.1.05</t>
-  </si>
-  <si>
-    <t>Multas por pagar</t>
-  </si>
-  <si>
-    <t>2.1.06</t>
+    <t>2.1.07</t>
+  </si>
+  <si>
+    <t>Prestamos bancarios a largo plazo</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>PASIVO NO CORRIENTE</t>
+  </si>
+  <si>
+    <t>2.2.01</t>
+  </si>
+  <si>
+    <t>PRESTAMOS BANCARIOS LARGO PLAZO</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>PATRIMONIO</t>
+  </si>
+  <si>
+    <t>3.1.</t>
+  </si>
+  <si>
+    <t>CAPITAL SOCIAL</t>
   </si>
   <si>
     <t>Equipo de computo</t>
   </si>
   <si>
-    <t>IVA por pagar</t>
-  </si>
-  <si>
-    <t>2.1.07</t>
+    <t>3.1.01</t>
+  </si>
+  <si>
+    <t>CAPITAL</t>
   </si>
   <si>
     <t>*</t>
   </si>
   <si>
-    <t>Prestamos bancarios a largo plazo</t>
-  </si>
-  <si>
     <t>Proveedores</t>
   </si>
   <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>PASIVO NO CORRIENTE</t>
-  </si>
-  <si>
-    <t>2.2.01</t>
-  </si>
-  <si>
-    <t>PRESTAMOS BANCARIOS LARGO PLAZO</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>PATRIMONIO</t>
-  </si>
-  <si>
-    <t>3.1.</t>
-  </si>
-  <si>
-    <t>CAPITAL SOCIAL</t>
-  </si>
-  <si>
-    <t>3.1.01</t>
-  </si>
-  <si>
-    <t>CAPITAL</t>
+    <t>Estado de Resultado Integral</t>
+  </si>
+  <si>
+    <t>4.</t>
   </si>
   <si>
     <t>Prestamos bancarios largo plazo</t>
   </si>
   <si>
+    <t>INGRESOS</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
     <t>Capital</t>
   </si>
   <si>
+    <t>INGRESOS OPERACIONALES</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>4.1.01</t>
+  </si>
+  <si>
     <t>El estado de situacion inicial</t>
   </si>
   <si>
+    <t>VENTAS</t>
+  </si>
+  <si>
     <t>Junio 02</t>
   </si>
   <si>
     <t>Bancos</t>
   </si>
   <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>GASTOS</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>GASTOS OPERACIONALES</t>
+  </si>
+  <si>
+    <t>5.1.01</t>
+  </si>
+  <si>
     <t>Apertura cuenta corriente No deposito en efectivo</t>
   </si>
   <si>
-    <t>Estado de Resultado Integral</t>
+    <t>SUELDOS Y SALARIOS</t>
+  </si>
+  <si>
+    <t>5.1.02</t>
+  </si>
+  <si>
+    <t>ARRIENDOS</t>
+  </si>
+  <si>
+    <t>5.1.03</t>
   </si>
   <si>
     <t>Ventas</t>
   </si>
   <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>INGRESOS</t>
+    <t>SERVICIOS BASICOS</t>
   </si>
   <si>
     <t>IVA ventas</t>
   </si>
   <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>INGRESOS OPERACIONALES</t>
-  </si>
-  <si>
-    <t>4.1.01</t>
-  </si>
-  <si>
-    <t>VENTAS</t>
+    <t>5.1.04</t>
+  </si>
+  <si>
+    <t>GASTOS DEPRECIACION MUEBLES DE OFICINA</t>
   </si>
   <si>
     <t>Venta mercaderias segun factura No</t>
   </si>
   <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>GASTOS</t>
+    <t>5.1.05</t>
   </si>
   <si>
     <t>Costo de venta</t>
   </si>
   <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>GASTOS OPERACIONALES</t>
-  </si>
-  <si>
-    <t>5.1.01</t>
-  </si>
-  <si>
-    <t>SUELDOS Y SALARIOS</t>
-  </si>
-  <si>
-    <t>5.1.02</t>
-  </si>
-  <si>
-    <t>ARRIENDOS</t>
-  </si>
-  <si>
-    <t>5.1.03</t>
+    <t>GASTOS DEPRECIACION EQUIPO DE COMPUTO</t>
+  </si>
+  <si>
+    <t>5.1.06</t>
+  </si>
+  <si>
+    <t>Decimo Tercero</t>
+  </si>
+  <si>
+    <t>5.1.07</t>
+  </si>
+  <si>
+    <t>Decimo Cuarto</t>
   </si>
   <si>
     <t>Venta de mercaderia precio de costo</t>
   </si>
   <si>
-    <t>SERVICIOS BASICOS</t>
-  </si>
-  <si>
-    <t>5.1.04</t>
-  </si>
-  <si>
-    <t>GASTOS DEPRECIACION MUEBLES DE OFICINA</t>
-  </si>
-  <si>
-    <t>5.1.05</t>
-  </si>
-  <si>
-    <t>GASTOS DEPRECIACION EQUIPO DE COMPUTO</t>
-  </si>
-  <si>
-    <t>5.1.06</t>
-  </si>
-  <si>
-    <t>Decimo Tercero</t>
-  </si>
-  <si>
-    <t>5.1.07</t>
-  </si>
-  <si>
-    <t>Decimo Cuarto</t>
-  </si>
-  <si>
     <t>5.1.08</t>
   </si>
   <si>
+    <t>Fondos de Reserva</t>
+  </si>
+  <si>
     <t>Deposito de la venta realizada</t>
   </si>
   <si>
-    <t>Fondos de Reserva</t>
-  </si>
-  <si>
     <t>5.1.09</t>
   </si>
   <si>
@@ -378,21 +378,63 @@
     <t>Comisiones</t>
   </si>
   <si>
+    <t>Contratacion de una poliza al 2.5% mensual</t>
+  </si>
+  <si>
     <t>5.1.11</t>
   </si>
   <si>
+    <t>Arriendos</t>
+  </si>
+  <si>
     <t>Horas extra</t>
   </si>
   <si>
+    <t>IVA compras</t>
+  </si>
+  <si>
+    <t>Arriendo</t>
+  </si>
+  <si>
+    <t>Caja Chica</t>
+  </si>
+  <si>
+    <t>Apertura de fondo de caja chica con cheque No 002</t>
+  </si>
+  <si>
+    <t>Junio 06</t>
+  </si>
+  <si>
+    <t>Compra de mercaderia</t>
+  </si>
+  <si>
+    <t>Junio 07</t>
+  </si>
+  <si>
+    <t>Transporte y movilizacion</t>
+  </si>
+  <si>
+    <t>Pago transporte Guayaquil</t>
+  </si>
+  <si>
+    <t>Junio 09</t>
+  </si>
+  <si>
+    <t>Devolucion 5 impresoras por estar en mal estado de la compra 6 de junio</t>
+  </si>
+  <si>
+    <t>Junio 10</t>
+  </si>
+  <si>
     <t>5.1.12</t>
   </si>
   <si>
-    <t>Transporte y movilizacion</t>
-  </si>
-  <si>
     <t>5.1.13</t>
   </si>
   <si>
+    <t>Venta de computadoras</t>
+  </si>
+  <si>
     <t>Viaticos</t>
   </si>
   <si>
@@ -408,82 +450,40 @@
     <t>Impuestos Fiscales</t>
   </si>
   <si>
-    <t>Contratacion de una poliza al 2.5% mensual</t>
-  </si>
-  <si>
-    <t>Arriendos</t>
-  </si>
-  <si>
-    <t>IVA compras</t>
+    <t>Registro precio de costo</t>
+  </si>
+  <si>
+    <t>Junio 12</t>
+  </si>
+  <si>
+    <t>Devolucion ventas</t>
+  </si>
+  <si>
+    <t>Devolucion ventas a precio de costo</t>
+  </si>
+  <si>
+    <t>Servicios Basicos</t>
+  </si>
+  <si>
+    <t>Pago de servicios basicos</t>
+  </si>
+  <si>
+    <t>Traslado del gerente a la ciudad de cuenta</t>
   </si>
   <si>
     <t>GASTOS NO OPERACIONALES</t>
   </si>
   <si>
+    <t>Junio 15</t>
+  </si>
+  <si>
+    <t>Suministros de oficina</t>
+  </si>
+  <si>
     <t>5.2.01</t>
   </si>
   <si>
     <t>Costo de Venta</t>
-  </si>
-  <si>
-    <t>Arriendo</t>
-  </si>
-  <si>
-    <t>Caja Chica</t>
-  </si>
-  <si>
-    <t>Apertura de fondo de caja chica con cheque No 002</t>
-  </si>
-  <si>
-    <t>Junio 06</t>
-  </si>
-  <si>
-    <t>Compra de mercaderia</t>
-  </si>
-  <si>
-    <t>Junio 07</t>
-  </si>
-  <si>
-    <t>Pago transporte Guayaquil</t>
-  </si>
-  <si>
-    <t>Junio 09</t>
-  </si>
-  <si>
-    <t>Devolucion 5 impresoras por estar en mal estado de la compra 6 de junio</t>
-  </si>
-  <si>
-    <t>Junio 10</t>
-  </si>
-  <si>
-    <t>Venta de computadoras</t>
-  </si>
-  <si>
-    <t>Registro precio de costo</t>
-  </si>
-  <si>
-    <t>Junio 12</t>
-  </si>
-  <si>
-    <t>Devolucion ventas</t>
-  </si>
-  <si>
-    <t>Devolucion ventas a precio de costo</t>
-  </si>
-  <si>
-    <t>Servicios Basicos</t>
-  </si>
-  <si>
-    <t>Pago de servicios basicos</t>
-  </si>
-  <si>
-    <t>Traslado del gerente a la ciudad de cuenta</t>
-  </si>
-  <si>
-    <t>Junio 15</t>
-  </si>
-  <si>
-    <t>Suministros de oficina</t>
   </si>
   <si>
     <t>Caja chica</t>
@@ -893,10 +893,10 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <sz val="10.0"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -939,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -947,393 +947,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1475,12 +1127,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="26" customWidth="true" width="7.63" collapsed="true"/>
+    <col min="1" max="26" customWidth="true" width="7.63" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1493,148 +1145,148 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="21">
+      <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -1653,297 +1305,297 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="4" t="s">
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="4" t="s">
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="7" t="s">
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="s">
+      <c r="B34" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="s">
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="10"/>
-      <c r="B42" s="4"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>91</v>
+      <c r="A46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="4" t="s">
+    <row r="52">
+      <c r="A52" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="4" t="s">
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="4" t="s">
+      <c r="B53" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="4" t="s">
+      <c r="B54" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="7" t="s">
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="4" t="s">
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>115</v>
+      <c r="B57" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="11" t="s">
+      <c r="A60" s="3" t="s">
         <v>122</v>
       </c>
+      <c r="B60" s="12" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>124</v>
+      <c r="A61" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>126</v>
+      <c r="A62" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>128</v>
+      <c r="A63" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>130</v>
+      <c r="A64" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="12">
+      <c r="A66" s="13">
         <v>5.2</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>134</v>
+      <c r="B66" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>136</v>
+      <c r="A67" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="12"/>
-      <c r="B70" s="7"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="8"/>
     </row>
     <row r="71">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1955,7 +1607,1289 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="7.63" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="52.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="44.38" collapsed="false"/>
+    <col min="4" max="26" customWidth="true" width="7.63" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7">
+        <v>25000.0</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7">
+        <v>3500.0</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8">
+        <v>55000.0</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8">
+        <v>15000.0</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="8">
+        <v>25000.0</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3500.0</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="C9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="8">
+        <v>118500.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="8">
+        <v>15000.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8">
+        <v>15000.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8">
+        <v>15960.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="8">
+        <v>14250.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1710.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="8">
+        <v>7250.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="8">
+        <v>7250.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="8">
+        <v>15960.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="8">
+        <v>15960.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="8">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="8">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="8">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="8">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="8">
+        <v>224.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="8">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="8">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="8">
+        <v>11000.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1320.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="8">
+        <v>12320.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="8">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="8">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1680.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="8">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="8">
+        <v>28750.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8">
+        <v>3450.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="8">
+        <v>28750.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="8">
+        <v>3450.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="8">
+        <v>14245.2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="8">
+        <v>14245.2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="8">
+        <v>6250.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="8">
+        <v>750.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="8">
+        <v>6250.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="8">
+        <v>750.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="8">
+        <v>3103.8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="8">
+        <v>3103.8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" s="8">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="8">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="8">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="8">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="8">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" s="8">
+        <v>78.4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" s="8">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="8">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="8">
+        <v>30000.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="8">
+        <v>3600.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77" s="8">
+        <v>33600.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" s="8">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="8">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="8">
+        <v>20720.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="8">
+        <v>18500.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E84" s="8">
+        <v>2220.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" s="8">
+        <v>9157.07</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="8">
+        <v>9157.07</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="8">
+        <v>14850.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D90" s="8">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E91" s="8">
+        <v>15000.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" s="8">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" s="8">
+        <v>624.94</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E95" s="8">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96" s="8">
+        <v>624.94</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D98" s="8">
+        <v>4504.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" s="8">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" s="8">
+        <v>430.21</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101" s="8">
+        <v>430.14</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="6"/>
+      <c r="B102" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="5">
+        <v>118.0</v>
+      </c>
+      <c r="E102" s="9"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="6"/>
+      <c r="B103" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="16">
+        <v>429.97</v>
+      </c>
+      <c r="E103" s="11"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="6"/>
+      <c r="B104" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="7">
+        <v>627.15</v>
+      </c>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B105" s="6"/>
+      <c r="C105" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="7">
+        <v>487.78</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D106" s="11"/>
+      <c r="E106" s="16">
+        <v>627.15</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="5">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="7">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="7">
+        <v>5297.04</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="7">
+        <v>6630.0</v>
+      </c>
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D112" s="9"/>
+      <c r="E112" s="5">
+        <v>4772.4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113" s="9"/>
+      <c r="E113" s="5">
+        <v>1857.6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="9"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="9"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="9"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="6"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="9"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="6"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="6"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="9"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="6"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="9"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="9"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1964,2221 +2898,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="171">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" t="n">
-        <v>46090.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>31810.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14280.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>78.4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>21.599999999999994</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>66530.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>24341.04</v>
-      </c>
-      <c r="F6" t="n">
-        <v>42188.96</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="n">
-        <v>32250.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6250.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>26000.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4952.4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4952.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>269</v>
-      </c>
-      <c r="D10" t="n">
-        <v>99103.8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>32152.27</v>
-      </c>
-      <c r="F10" t="n">
-        <v>66951.53</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>271</v>
-      </c>
-      <c r="D12" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>112.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>624.94</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>624.94</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>272</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5000.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5000.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>37100.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>37100.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>273</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>487.78</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>487.78</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>274</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>627.15</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>627.15</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7380.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7380.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>275</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>276</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1857.6</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1857.6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>16500.0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>16500.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>118500.0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>118500.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" t="n">
-        <v>6250.0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>61500.0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>55250.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" t="n">
-        <v>4504.0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4504.0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" t="n">
-        <v>112.5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>112.5</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" t="n">
-        <v>624.94</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>624.94</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" t="s">
-        <v>277</v>
-      </c>
-      <c r="D31" t="n">
-        <v>430.14</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>430.14</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" t="s">
-        <v>278</v>
-      </c>
-      <c r="D32" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" t="s">
-        <v>279</v>
-      </c>
-      <c r="D33" t="n">
-        <v>429.97</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>429.97</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" t="s">
-        <v>280</v>
-      </c>
-      <c r="D34" t="n">
-        <v>627.15</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>627.15</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" t="s">
-        <v>281</v>
-      </c>
-      <c r="D35" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" t="s">
-        <v>282</v>
-      </c>
-      <c r="D36" t="n">
-        <v>430.21</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>430.21</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" t="s">
-        <v>283</v>
-      </c>
-      <c r="D37" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" t="s">
-        <v>284</v>
-      </c>
-      <c r="D38" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" t="s">
-        <v>285</v>
-      </c>
-      <c r="D39" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" t="s">
-        <v>286</v>
-      </c>
-      <c r="D40" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" t="s">
-        <v>287</v>
-      </c>
-      <c r="D41" t="n">
-        <v>30652.27</v>
-      </c>
-      <c r="E41" t="n">
-        <v>3103.8</v>
-      </c>
-      <c r="F41" t="n">
-        <v>27548.47</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" t="s">
-        <v>288</v>
-      </c>
-      <c r="D42" t="n">
-        <v>347732.88000000006</v>
-      </c>
-      <c r="E42" t="n">
-        <v>347732.87999999995</v>
-      </c>
-      <c r="F42" t="n">
-        <v>231114.97</v>
-      </c>
-      <c r="G42" t="n">
-        <v>231114.97</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:H2"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="26" customWidth="true" width="7.63" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
-        <v>25000.0</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6">
-        <v>3500.0</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="7">
-        <v>55000.0</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="7">
-        <v>15000.0</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="7">
-        <v>25000.0</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="7">
-        <v>3500.0</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9">
-      <c r="C9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="7">
-        <v>118500.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7">
-        <v>15000.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="7">
-        <v>15000.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="7">
-        <v>15960.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="7">
-        <v>14250.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1710.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="7">
-        <v>7250.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="7">
-        <v>7250.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="7">
-        <v>15960.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="7">
-        <v>15960.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="7">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="7">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="7">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="7">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="7">
-        <v>224.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="7">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="7">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="7">
-        <v>11000.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1320.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="7">
-        <v>12320.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="7">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="7">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1680.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="7">
-        <v>180.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="7">
-        <v>28750.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7">
-        <v>3450.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" s="7">
-        <v>28750.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="7">
-        <v>3450.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="7">
-        <v>14245.2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="7">
-        <v>14245.2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="7">
-        <v>6250.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="7">
-        <v>750.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" s="7">
-        <v>6250.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="7">
-        <v>750.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="7">
-        <v>3103.8</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E60" s="7">
-        <v>3103.8</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D62" s="7">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E63" s="7">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D65" s="7">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" s="7">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D68" s="7">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E70" s="7">
-        <v>78.4</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D72" s="7">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E73" s="7">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75" s="7">
-        <v>30000.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D76" s="7">
-        <v>3600.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E77" s="7">
-        <v>33600.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D79" s="7">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E80" s="7">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="7">
-        <v>20720.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E83" s="7">
-        <v>18500.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="C84" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E84" s="7">
-        <v>2220.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D86" s="7">
-        <v>9157.07</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E87" s="7">
-        <v>9157.07</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D89" s="7">
-        <v>14850.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D90" s="7">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E91" s="7">
-        <v>15000.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D93" s="7">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="B94" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D94" s="7">
-        <v>624.94</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E95" s="7">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="C96" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E96" s="7">
-        <v>624.94</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D98" s="7">
-        <v>4504.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="B99" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D99" s="7">
-        <v>227.5</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="B100" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D100" s="7">
-        <v>430.21</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="B101" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D101" s="7">
-        <v>430.14</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="5"/>
-      <c r="B102" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="3">
-        <v>118.0</v>
-      </c>
-      <c r="E102" s="8"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="5"/>
-      <c r="B103" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="15">
-        <v>429.97</v>
-      </c>
-      <c r="E103" s="9"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="5"/>
-      <c r="B104" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="6">
-        <v>627.15</v>
-      </c>
-      <c r="E104" s="5"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="6">
-        <v>487.78</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="15">
-        <v>627.15</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D107" s="8"/>
-      <c r="E107" s="3">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="6">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="6">
-        <v>5297.04</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="6">
-        <v>6630.0</v>
-      </c>
-      <c r="E111" s="5"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D112" s="8"/>
-      <c r="E112" s="3">
-        <v>4772.4</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D113" s="8"/>
-      <c r="E113" s="3">
-        <v>1857.6</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="5"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="8"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="8"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="5"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="8"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="5"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="8"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="5"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="5"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="8"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="5"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="8"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="8"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="133">
+      <c r="A1" t="s" s="17">
         <v>175</v>
       </c>
     </row>
@@ -4214,10 +2934,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -4234,10 +2954,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -4254,10 +2974,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -4274,10 +2994,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" t="n">
         <v>5.0</v>
@@ -4294,10 +3014,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C9" t="n">
         <v>10.0</v>
@@ -4314,10 +3034,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C10" t="n">
         <v>11.0</v>
@@ -4334,10 +3054,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C11" t="n">
         <v>12.0</v>
@@ -4354,10 +3074,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4393,7 +3113,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="134">
+      <c r="A17" t="s" s="18">
         <v>175</v>
       </c>
     </row>
@@ -4432,7 +3152,7 @@
         <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C21" t="n">
         <v>8.0</v>
@@ -4449,7 +3169,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
         <v>158</v>
@@ -4488,7 +3208,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="135">
+      <c r="A27" t="s" s="19">
         <v>175</v>
       </c>
     </row>
@@ -4524,10 +3244,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C31" t="n">
         <v>2.0</v>
@@ -4544,10 +3264,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C32" t="n">
         <v>5.0</v>
@@ -4567,7 +3287,7 @@
         <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C33" t="n">
         <v>6.0</v>
@@ -4587,7 +3307,7 @@
         <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C34" t="n">
         <v>7.0</v>
@@ -4607,7 +3327,7 @@
         <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C35" t="n">
         <v>8.0</v>
@@ -4624,10 +3344,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C36" t="n">
         <v>9.0</v>
@@ -4644,10 +3364,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C37" t="n">
         <v>16.0</v>
@@ -4664,10 +3384,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C38" t="n">
         <v>17.0</v>
@@ -4684,7 +3404,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s">
         <v>160</v>
@@ -4803,7 +3523,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="136">
+      <c r="A48" t="s" s="20">
         <v>175</v>
       </c>
     </row>
@@ -4839,10 +3559,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C52" t="n">
         <v>1.0</v>
@@ -4859,10 +3579,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C53" t="n">
         <v>12.0</v>
@@ -4879,10 +3599,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C54" t="n">
         <v>14.0</v>
@@ -4918,7 +3638,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="137">
+      <c r="A59" t="s" s="21">
         <v>175</v>
       </c>
     </row>
@@ -4957,7 +3677,7 @@
         <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C63" t="n">
         <v>7.0</v>
@@ -4974,10 +3694,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C64" t="n">
         <v>9.0</v>
@@ -4994,10 +3714,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C65" t="n">
         <v>11.0</v>
@@ -5014,7 +3734,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B66" t="s">
         <v>158</v>
@@ -5037,7 +3757,7 @@
         <v>161</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C67" t="n">
         <v>20.0</v>
@@ -5093,7 +3813,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="138">
+      <c r="A73" t="s" s="22">
         <v>175</v>
       </c>
     </row>
@@ -5129,7 +3849,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B77" t="s">
         <v>158</v>
@@ -5168,7 +3888,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="139">
+      <c r="A82" t="s" s="23">
         <v>175</v>
       </c>
     </row>
@@ -5204,10 +3924,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C86" t="n">
         <v>1.0</v>
@@ -5224,10 +3944,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C87" t="n">
         <v>4.0</v>
@@ -5244,10 +3964,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B88" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C88" t="n">
         <v>9.0</v>
@@ -5264,10 +3984,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C89" t="n">
         <v>11.0</v>
@@ -5284,10 +4004,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C90" t="n">
         <v>13.0</v>
@@ -5304,10 +4024,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C91" t="n">
         <v>15.0</v>
@@ -5327,7 +4047,7 @@
         <v>161</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C92" t="n">
         <v>20.0</v>
@@ -5383,7 +4103,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="140">
+      <c r="A98" t="s" s="24">
         <v>175</v>
       </c>
     </row>
@@ -5419,7 +4139,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B102" t="s">
         <v>160</v>
@@ -5478,7 +4198,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="141">
+      <c r="A108" t="s" s="25">
         <v>175</v>
       </c>
     </row>
@@ -5514,10 +4234,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B112" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C112" t="n">
         <v>1.0</v>
@@ -5553,7 +4273,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="142">
+      <c r="A117" t="s" s="26">
         <v>175</v>
       </c>
     </row>
@@ -5628,7 +4348,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="143">
+      <c r="A126" t="s" s="27">
         <v>175</v>
       </c>
     </row>
@@ -5664,10 +4384,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B130" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C130" t="n">
         <v>1.0</v>
@@ -5703,7 +4423,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="144">
+      <c r="A135" t="s" s="28">
         <v>175</v>
       </c>
     </row>
@@ -5778,7 +4498,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="145">
+      <c r="A144" t="s" s="29">
         <v>175</v>
       </c>
     </row>
@@ -5817,7 +4537,7 @@
         <v>117</v>
       </c>
       <c r="B148" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C148" t="n">
         <v>6.0</v>
@@ -5853,7 +4573,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="146">
+      <c r="A153" t="s" s="30">
         <v>175</v>
       </c>
     </row>
@@ -5889,10 +4609,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B157" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C157" t="n">
         <v>1.0</v>
@@ -5912,7 +4632,7 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C158" t="n">
         <v>20.0</v>
@@ -5948,7 +4668,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="147">
+      <c r="A163" t="s" s="31">
         <v>175</v>
       </c>
     </row>
@@ -6023,7 +4743,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="148">
+      <c r="A172" t="s" s="32">
         <v>175</v>
       </c>
     </row>
@@ -6098,7 +4818,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="149">
+      <c r="A181" t="s" s="33">
         <v>175</v>
       </c>
     </row>
@@ -6134,10 +4854,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B185" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C185" t="n">
         <v>3.0</v>
@@ -6154,10 +4874,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B186" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C186" t="n">
         <v>12.0</v>
@@ -6174,10 +4894,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B187" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C187" t="n">
         <v>14.0</v>
@@ -6253,7 +4973,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="150">
+      <c r="A194" t="s" s="34">
         <v>175</v>
       </c>
     </row>
@@ -6328,7 +5048,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="151">
+      <c r="A203" t="s" s="35">
         <v>175</v>
       </c>
     </row>
@@ -6403,7 +5123,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="152">
+      <c r="A212" t="s" s="36">
         <v>175</v>
       </c>
     </row>
@@ -6439,10 +5159,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B216" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C216" t="n">
         <v>1.0</v>
@@ -6498,7 +5218,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="153">
+      <c r="A222" t="s" s="37">
         <v>175</v>
       </c>
     </row>
@@ -6534,10 +5254,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B226" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C226" t="n">
         <v>1.0</v>
@@ -6573,7 +5293,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="154">
+      <c r="A231" t="s" s="38">
         <v>175</v>
       </c>
     </row>
@@ -6609,10 +5329,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B235" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C235" t="n">
         <v>3.0</v>
@@ -6629,10 +5349,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B236" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C236" t="n">
         <v>12.0</v>
@@ -6649,10 +5369,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B237" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C237" t="n">
         <v>14.0</v>
@@ -6708,7 +5428,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="155">
+      <c r="A243" t="s" s="39">
         <v>175</v>
       </c>
     </row>
@@ -6783,7 +5503,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="156">
+      <c r="A252" t="s" s="40">
         <v>175</v>
       </c>
     </row>
@@ -6822,7 +5542,7 @@
         <v>117</v>
       </c>
       <c r="B256" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C256" t="n">
         <v>7.0</v>
@@ -6858,7 +5578,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="157">
+      <c r="A261" t="s" s="41">
         <v>175</v>
       </c>
     </row>
@@ -6894,10 +5614,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B265" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C265" t="n">
         <v>16.0</v>
@@ -6933,7 +5653,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="158">
+      <c r="A270" t="s" s="42">
         <v>175</v>
       </c>
     </row>
@@ -7008,7 +5728,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="159">
+      <c r="A279" t="s" s="43">
         <v>175</v>
       </c>
     </row>
@@ -7083,7 +5803,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="160">
+      <c r="A288" t="s" s="44">
         <v>175</v>
       </c>
     </row>
@@ -7158,7 +5878,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="161">
+      <c r="A297" t="s" s="45">
         <v>175</v>
       </c>
     </row>
@@ -7233,7 +5953,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="162">
+      <c r="A306" t="s" s="46">
         <v>175</v>
       </c>
     </row>
@@ -7308,7 +6028,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="163">
+      <c r="A315" t="s" s="47">
         <v>175</v>
       </c>
     </row>
@@ -7383,7 +6103,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="164">
+      <c r="A324" t="s" s="48">
         <v>175</v>
       </c>
     </row>
@@ -7458,7 +6178,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="s" s="165">
+      <c r="A333" t="s" s="49">
         <v>175</v>
       </c>
     </row>
@@ -7533,7 +6253,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="166">
+      <c r="A342" t="s" s="50">
         <v>175</v>
       </c>
     </row>
@@ -7569,10 +6289,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B346" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C346" t="n">
         <v>10.0</v>
@@ -7608,7 +6328,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="167">
+      <c r="A351" t="s" s="51">
         <v>175</v>
       </c>
     </row>
@@ -7644,10 +6364,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B355" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C355" t="n">
         <v>17.0</v>
@@ -7683,7 +6403,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="168">
+      <c r="A360" t="s" s="52">
         <v>175</v>
       </c>
     </row>
@@ -7758,7 +6478,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="s" s="169">
+      <c r="A369" t="s" s="53">
         <v>175</v>
       </c>
     </row>
@@ -7833,7 +6553,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="s" s="170">
+      <c r="A378" t="s" s="54">
         <v>175</v>
       </c>
     </row>
@@ -7869,10 +6589,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B382" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C382" t="n">
         <v>4.0</v>
@@ -7889,10 +6609,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B383" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C383" t="n">
         <v>13.0</v>
@@ -7909,10 +6629,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B384" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C384" t="n">
         <v>15.0</v>
@@ -8086,4 +6806,939 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="55">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" t="n">
+        <v>46090.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>31810.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14280.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>78.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>21.599999999999994</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>66530.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24341.04</v>
+      </c>
+      <c r="F6" t="n">
+        <v>42188.96</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32250.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6250.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26000.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4952.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4952.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" t="n">
+        <v>99103.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32152.27</v>
+      </c>
+      <c r="F10" t="n">
+        <v>66951.53</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>624.94</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>624.94</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>37100.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>37100.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>487.78</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>487.78</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>627.15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>627.15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7380.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7380.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1857.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1857.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>16500.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>118500.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>118500.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6250.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>61500.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>55250.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4504.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4504.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" t="n">
+        <v>624.94</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>624.94</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" t="n">
+        <v>430.14</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>430.14</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D32" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" t="n">
+        <v>429.97</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>429.97</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
+        <v>280</v>
+      </c>
+      <c r="D34" t="n">
+        <v>627.15</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>627.15</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>281</v>
+      </c>
+      <c r="D35" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36" t="n">
+        <v>430.21</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>430.21</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>286</v>
+      </c>
+      <c r="D40" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" t="s">
+        <v>287</v>
+      </c>
+      <c r="D41" t="n">
+        <v>30652.27</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3103.8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>27548.47</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="s">
+        <v>288</v>
+      </c>
+      <c r="D42" t="n">
+        <v>347732.88000000006</v>
+      </c>
+      <c r="E42" t="n">
+        <v>347732.87999999995</v>
+      </c>
+      <c r="F42" t="n">
+        <v>231114.97</v>
+      </c>
+      <c r="G42" t="n">
+        <v>231114.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:H2"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>